--- a/чистый бланк/старые/Бланк ЗПФ  клиент ООО КСК ТРЕЙД на отгрузку с 27.01.2025.xlsx
+++ b/чистый бланк/старые/Бланк ЗПФ  клиент ООО КСК ТРЕЙД на отгрузку с 27.01.2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86E32B-8819-4710-91CA-3B9D56E40964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D16BE4-C132-4E14-BE13-7A41EE3F11D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Setting" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Бланк заказа'!$A$18:$AF$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Бланк заказа'!$A$18:$AF$330</definedName>
     <definedName name="CodeProxySet">Setting!$E$9:$E$10</definedName>
     <definedName name="Comment">'Бланк заказа'!$H$5</definedName>
     <definedName name="ContactInformation">'Бланк заказа'!$A$12</definedName>
@@ -568,7 +568,7 @@
     <definedName name="UnloadAddress">'Бланк заказа'!$D$8</definedName>
     <definedName name="UnloadAdressList0001">Setting!$B$8:$B$8</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -581,7 +581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="531">
   <si>
     <t>кг</t>
   </si>
@@ -817,9 +817,6 @@
     <t>27.01.2025</t>
   </si>
   <si>
-    <t>23.01.2025</t>
-  </si>
-  <si>
     <t>ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КСК ТРЕЙД"</t>
   </si>
   <si>
@@ -976,6 +973,12 @@
     <t>ЕАЭС N RU Д-RU.РА06.В.58287/22</t>
   </si>
   <si>
+    <t>SU003532</t>
+  </si>
+  <si>
+    <t>P004440</t>
+  </si>
+  <si>
     <t>SU002708</t>
   </si>
   <si>
@@ -988,10 +991,13 @@
     <t>Палетта</t>
   </si>
   <si>
-    <t>SU003532</t>
-  </si>
-  <si>
-    <t>P004440</t>
+    <t>SU003531</t>
+  </si>
+  <si>
+    <t>P004441</t>
+  </si>
+  <si>
+    <t>ЕАЭС N RU Д-RU.РА04.В.26948/22</t>
   </si>
   <si>
     <t>SU002707</t>
@@ -1000,19 +1006,16 @@
     <t>P003680</t>
   </si>
   <si>
-    <t>ЕАЭС N RU Д-RU.РА04.В.26948/22</t>
-  </si>
-  <si>
     <t>Слой, мин. 1</t>
   </si>
   <si>
     <t>Слой</t>
   </si>
   <si>
-    <t>SU003531</t>
-  </si>
-  <si>
-    <t>P004441</t>
+    <t>SU003385</t>
+  </si>
+  <si>
+    <t>P004203</t>
   </si>
   <si>
     <t>SU002838</t>
@@ -1021,30 +1024,24 @@
     <t>P003681</t>
   </si>
   <si>
-    <t>SU003385</t>
-  </si>
-  <si>
-    <t>P004203</t>
-  </si>
-  <si>
     <t>SU003530</t>
   </si>
   <si>
     <t>P004443</t>
   </si>
   <si>
+    <t>SU003529</t>
+  </si>
+  <si>
+    <t>P004442</t>
+  </si>
+  <si>
     <t>SU002624</t>
   </si>
   <si>
     <t>P003678</t>
   </si>
   <si>
-    <t>SU003529</t>
-  </si>
-  <si>
-    <t>P004442</t>
-  </si>
-  <si>
     <t>Foodgital</t>
   </si>
   <si>
@@ -1282,16 +1279,16 @@
     <t>P004474</t>
   </si>
   <si>
+    <t>SU003460</t>
+  </si>
+  <si>
+    <t>P004345</t>
+  </si>
+  <si>
     <t>SU002627</t>
   </si>
   <si>
     <t>P003686</t>
-  </si>
-  <si>
-    <t>SU003460</t>
-  </si>
-  <si>
-    <t>P004345</t>
   </si>
   <si>
     <t>SU003528</t>
@@ -7962,7 +7959,7 @@
   <dimension ref="A1:BP338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8049,7 +8046,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -8185,7 +8182,7 @@
       </c>
       <c r="U5" s="352"/>
       <c r="V5" s="353" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="W5" s="354"/>
       <c r="AB5" s="59"/>
@@ -8200,7 +8197,7 @@
       <c r="B6" s="347"/>
       <c r="C6" s="347"/>
       <c r="D6" s="355" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="355"/>
       <c r="F6" s="355"/>
@@ -8225,7 +8222,7 @@
       </c>
       <c r="U6" s="358"/>
       <c r="V6" s="359" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W6" s="360"/>
       <c r="AB6" s="59"/>
@@ -8270,7 +8267,7 @@
       <c r="B8" s="368"/>
       <c r="C8" s="368"/>
       <c r="D8" s="369" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="369"/>
       <c r="F8" s="369"/>
@@ -8378,7 +8375,7 @@
         <v>12</v>
       </c>
       <c r="V10" s="378" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W10" s="379"/>
       <c r="X10" s="50"/>
@@ -8430,7 +8427,7 @@
     </row>
     <row r="12" spans="1:32" s="17" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="382" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="382"/>
       <c r="C12" s="382"/>
@@ -8465,7 +8462,7 @@
     </row>
     <row r="13" spans="1:32" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="382" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="382"/>
       <c r="C13" s="382"/>
@@ -8502,7 +8499,7 @@
     </row>
     <row r="14" spans="1:32" s="17" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="382" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="382"/>
       <c r="C14" s="382"/>
@@ -8537,7 +8534,7 @@
     </row>
     <row r="15" spans="1:32" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="384" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="384"/>
       <c r="C15" s="384"/>
@@ -8730,7 +8727,7 @@
     </row>
     <row r="19" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="411" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="411"/>
       <c r="C19" s="411"/>
@@ -8763,7 +8760,7 @@
     </row>
     <row r="20" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="412" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="412"/>
       <c r="C20" s="412"/>
@@ -8796,7 +8793,7 @@
     </row>
     <row r="21" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="413"/>
       <c r="C21" s="413"/>
@@ -8829,10 +8826,10 @@
     </row>
     <row r="22" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="63" t="s">
         <v>83</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>84</v>
       </c>
       <c r="C22" s="36">
         <v>4301070899</v>
@@ -8857,13 +8854,13 @@
         <v>84</v>
       </c>
       <c r="K22" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M22" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N22" s="38"/>
       <c r="O22" s="37">
@@ -8904,11 +8901,11 @@
         <v>46</v>
       </c>
       <c r="AC22" s="89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG22" s="81"/>
       <c r="AJ22" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK22" s="87">
         <v>1</v>
@@ -9053,7 +9050,7 @@
     </row>
     <row r="26" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="412" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="412"/>
       <c r="C26" s="412"/>
@@ -9086,7 +9083,7 @@
     </row>
     <row r="27" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="413" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="413"/>
       <c r="C27" s="413"/>
@@ -9119,10 +9116,10 @@
     </row>
     <row r="28" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="63" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>93</v>
       </c>
       <c r="C28" s="36">
         <v>4301132186</v>
@@ -9147,20 +9144,20 @@
         <v>140</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N28" s="38"/>
       <c r="O28" s="37">
         <v>365</v>
       </c>
       <c r="P28" s="423" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="416"/>
       <c r="R28" s="416"/>
@@ -9193,17 +9190,17 @@
         <v>46</v>
       </c>
       <c r="AC28" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG28" s="81"/>
       <c r="AJ28" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK28" s="87">
         <v>1</v>
       </c>
       <c r="BB28" s="92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM28" s="81">
         <f>IFERROR(X28*I28,"0")</f>
@@ -9224,10 +9221,10 @@
     </row>
     <row r="29" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="63" t="s">
         <v>98</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>99</v>
       </c>
       <c r="C29" s="36">
         <v>4301132185</v>
@@ -9252,20 +9249,20 @@
         <v>140</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N29" s="38"/>
       <c r="O29" s="37">
         <v>365</v>
       </c>
       <c r="P29" s="424" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q29" s="416"/>
       <c r="R29" s="416"/>
@@ -9298,17 +9295,17 @@
         <v>46</v>
       </c>
       <c r="AC29" s="93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG29" s="81"/>
       <c r="AJ29" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK29" s="87">
         <v>1</v>
       </c>
       <c r="BB29" s="94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM29" s="81">
         <f>IFERROR(X29*I29,"0")</f>
@@ -9329,10 +9326,10 @@
     </row>
     <row r="30" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="63" t="s">
         <v>101</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>102</v>
       </c>
       <c r="C30" s="36">
         <v>4301132094</v>
@@ -9357,13 +9354,13 @@
         <v>140</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M30" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N30" s="38"/>
       <c r="O30" s="37">
@@ -9404,17 +9401,17 @@
         <v>46</v>
       </c>
       <c r="AC30" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG30" s="81"/>
       <c r="AJ30" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK30" s="87">
         <v>1</v>
       </c>
       <c r="BB30" s="96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM30" s="81">
         <f>IFERROR(X30*I30,"0")</f>
@@ -9435,10 +9432,10 @@
     </row>
     <row r="31" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="63" t="s">
         <v>103</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>104</v>
       </c>
       <c r="C31" s="36">
         <v>4301132095</v>
@@ -9463,13 +9460,13 @@
         <v>140</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N31" s="38"/>
       <c r="O31" s="37">
@@ -9510,17 +9507,17 @@
         <v>46</v>
       </c>
       <c r="AC31" s="97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG31" s="81"/>
       <c r="AJ31" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK31" s="87">
         <v>1</v>
       </c>
       <c r="BB31" s="98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM31" s="81">
         <f>IFERROR(X31*I31,"0")</f>
@@ -9626,7 +9623,7 @@
     </row>
     <row r="34" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="412" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="412"/>
       <c r="C34" s="412"/>
@@ -9659,7 +9656,7 @@
     </row>
     <row r="35" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="413"/>
       <c r="C35" s="413"/>
@@ -9692,10 +9689,10 @@
     </row>
     <row r="36" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="63" t="s">
         <v>106</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>107</v>
       </c>
       <c r="C36" s="36">
         <v>4301071090</v>
@@ -9720,20 +9717,20 @@
         <v>84</v>
       </c>
       <c r="K36" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L36" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M36" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N36" s="38"/>
       <c r="O36" s="37">
         <v>180</v>
       </c>
       <c r="P36" s="427" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q36" s="416"/>
       <c r="R36" s="416"/>
@@ -9766,11 +9763,11 @@
         <v>46</v>
       </c>
       <c r="AC36" s="99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG36" s="81"/>
       <c r="AJ36" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK36" s="87">
         <v>1</v>
@@ -9797,10 +9794,10 @@
     </row>
     <row r="37" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="63" t="s">
         <v>110</v>
-      </c>
-      <c r="B37" s="63" t="s">
-        <v>111</v>
       </c>
       <c r="C37" s="36">
         <v>4301070884</v>
@@ -9825,13 +9822,13 @@
         <v>84</v>
       </c>
       <c r="K37" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L37" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M37" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N37" s="38"/>
       <c r="O37" s="37">
@@ -9872,11 +9869,11 @@
         <v>46</v>
       </c>
       <c r="AC37" s="101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG37" s="81"/>
       <c r="AJ37" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK37" s="87">
         <v>1</v>
@@ -9903,10 +9900,10 @@
     </row>
     <row r="38" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="63" t="s">
         <v>113</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>114</v>
       </c>
       <c r="C38" s="36">
         <v>4301071092</v>
@@ -9931,20 +9928,20 @@
         <v>84</v>
       </c>
       <c r="K38" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L38" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L38" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M38" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N38" s="38"/>
       <c r="O38" s="37">
         <v>180</v>
       </c>
       <c r="P38" s="429" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q38" s="416"/>
       <c r="R38" s="416"/>
@@ -9977,11 +9974,11 @@
         <v>46</v>
       </c>
       <c r="AC38" s="103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG38" s="81"/>
       <c r="AJ38" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK38" s="87">
         <v>1</v>
@@ -10008,10 +10005,10 @@
     </row>
     <row r="39" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="63" t="s">
         <v>117</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>118</v>
       </c>
       <c r="C39" s="36">
         <v>4301071091</v>
@@ -10036,20 +10033,20 @@
         <v>84</v>
       </c>
       <c r="K39" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L39" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L39" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M39" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N39" s="38"/>
       <c r="O39" s="37">
         <v>180</v>
       </c>
       <c r="P39" s="430" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q39" s="416"/>
       <c r="R39" s="416"/>
@@ -10082,11 +10079,11 @@
         <v>46</v>
       </c>
       <c r="AC39" s="105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG39" s="81"/>
       <c r="AJ39" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK39" s="87">
         <v>1</v>
@@ -10198,7 +10195,7 @@
     </row>
     <row r="42" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="412" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="412"/>
       <c r="C42" s="412"/>
@@ -10231,7 +10228,7 @@
     </row>
     <row r="43" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="413"/>
       <c r="C43" s="413"/>
@@ -10264,10 +10261,10 @@
     </row>
     <row r="44" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="63" t="s">
         <v>122</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>123</v>
       </c>
       <c r="C44" s="36">
         <v>4301071032</v>
@@ -10292,13 +10289,13 @@
         <v>84</v>
       </c>
       <c r="K44" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L44" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M44" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N44" s="38"/>
       <c r="O44" s="37">
@@ -10339,11 +10336,11 @@
         <v>46</v>
       </c>
       <c r="AC44" s="107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG44" s="81"/>
       <c r="AJ44" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK44" s="87">
         <v>1</v>
@@ -10370,49 +10367,49 @@
     </row>
     <row r="45" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="63" t="s">
-        <v>126</v>
-      </c>
       <c r="C45" s="36">
-        <v>4301070972</v>
+        <v>4301071044</v>
       </c>
       <c r="D45" s="414">
-        <v>4607111037183</v>
+        <v>4607111039385</v>
       </c>
       <c r="E45" s="414"/>
       <c r="F45" s="62">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G45" s="37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H45" s="62">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I45" s="62">
-        <v>7.4859999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="J45" s="37">
         <v>84</v>
       </c>
       <c r="K45" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L45" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L45" s="37" t="s">
-        <v>127</v>
-      </c>
       <c r="M45" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N45" s="38"/>
       <c r="O45" s="37">
         <v>180</v>
       </c>
       <c r="P45" s="432" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P003682/","Пельмени «Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой» 0,9 сфера ТМ «Горячая штучка»")</f>
-        <v>Пельмени «Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой» 0,9 сфера ТМ «Горячая штучка»</v>
+        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P004440/","Пельмени «Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой» 0,7 сфера ТМ «Горячая штучка»")</f>
+        <v>Пельмени «Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой» 0,7 сфера ТМ «Горячая штучка»</v>
       </c>
       <c r="Q45" s="416"/>
       <c r="R45" s="416"/>
@@ -10445,14 +10442,14 @@
         <v>46</v>
       </c>
       <c r="AC45" s="109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG45" s="81"/>
       <c r="AJ45" s="87" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="AK45" s="87">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="BB45" s="110" t="s">
         <v>70</v>
@@ -10476,49 +10473,49 @@
     </row>
     <row r="46" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46" s="36">
-        <v>4301071044</v>
+        <v>4301070972</v>
       </c>
       <c r="D46" s="414">
-        <v>4607111039385</v>
+        <v>4607111037183</v>
       </c>
       <c r="E46" s="414"/>
       <c r="F46" s="62">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G46" s="37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H46" s="62">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I46" s="62">
-        <v>7.3</v>
+        <v>7.4859999999999998</v>
       </c>
       <c r="J46" s="37">
         <v>84</v>
       </c>
       <c r="K46" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L46" s="37" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N46" s="38"/>
       <c r="O46" s="37">
         <v>180</v>
       </c>
       <c r="P46" s="433" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P004440/","Пельмени «Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой» 0,7 сфера ТМ «Горячая штучка»")</f>
-        <v>Пельмени «Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой» 0,7 сфера ТМ «Горячая штучка»</v>
+        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P003682/","Пельмени «Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой» 0,9 сфера ТМ «Горячая штучка»")</f>
+        <v>Пельмени «Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой» 0,9 сфера ТМ «Горячая штучка»</v>
       </c>
       <c r="Q46" s="416"/>
       <c r="R46" s="416"/>
@@ -10551,14 +10548,14 @@
         <v>46</v>
       </c>
       <c r="AC46" s="111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG46" s="81"/>
       <c r="AJ46" s="87" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AK46" s="87">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="BB46" s="112" t="s">
         <v>70</v>
@@ -10582,49 +10579,49 @@
     </row>
     <row r="47" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="63" t="s">
-        <v>132</v>
-      </c>
       <c r="C47" s="36">
-        <v>4301070970</v>
+        <v>4301071045</v>
       </c>
       <c r="D47" s="414">
-        <v>4607111037091</v>
+        <v>4607111039392</v>
       </c>
       <c r="E47" s="414"/>
       <c r="F47" s="62">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="G47" s="37">
         <v>16</v>
       </c>
       <c r="H47" s="62">
-        <v>6.88</v>
+        <v>6.4</v>
       </c>
       <c r="I47" s="62">
-        <v>7.11</v>
+        <v>6.7195999999999998</v>
       </c>
       <c r="J47" s="37">
         <v>84</v>
       </c>
       <c r="K47" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L47" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L47" s="37" t="s">
-        <v>134</v>
-      </c>
       <c r="M47" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N47" s="38"/>
       <c r="O47" s="37">
         <v>180</v>
       </c>
       <c r="P47" s="434" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P003680/","Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,43 сфера ТМ «Горячая штучка»")</f>
-        <v>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,43 сфера ТМ «Горячая штучка»</v>
+        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P004441/","Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,4 сфера ТМ «Горячая штучка»")</f>
+        <v>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,4 сфера ТМ «Горячая штучка»</v>
       </c>
       <c r="Q47" s="416"/>
       <c r="R47" s="416"/>
@@ -10657,14 +10654,14 @@
         <v>46</v>
       </c>
       <c r="AC47" s="113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG47" s="81"/>
       <c r="AJ47" s="87" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="AK47" s="87">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BB47" s="114" t="s">
         <v>70</v>
@@ -10688,49 +10685,49 @@
     </row>
     <row r="48" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C48" s="36">
-        <v>4301071045</v>
+        <v>4301070970</v>
       </c>
       <c r="D48" s="414">
-        <v>4607111039392</v>
+        <v>4607111037091</v>
       </c>
       <c r="E48" s="414"/>
       <c r="F48" s="62">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G48" s="37">
         <v>16</v>
       </c>
       <c r="H48" s="62">
-        <v>6.4</v>
+        <v>6.88</v>
       </c>
       <c r="I48" s="62">
-        <v>6.7195999999999998</v>
+        <v>7.11</v>
       </c>
       <c r="J48" s="37">
         <v>84</v>
       </c>
       <c r="K48" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="M48" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N48" s="38"/>
       <c r="O48" s="37">
         <v>180</v>
       </c>
       <c r="P48" s="435" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P004441/","Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,4 сфера ТМ «Горячая штучка»")</f>
-        <v>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,4 сфера ТМ «Горячая штучка»</v>
+        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P003680/","Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,43 сфера ТМ «Горячая штучка»")</f>
+        <v>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,43 сфера ТМ «Горячая штучка»</v>
       </c>
       <c r="Q48" s="416"/>
       <c r="R48" s="416"/>
@@ -10763,14 +10760,14 @@
         <v>46</v>
       </c>
       <c r="AC48" s="115" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG48" s="81"/>
       <c r="AJ48" s="87" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="AK48" s="87">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BB48" s="116" t="s">
         <v>70</v>
@@ -10794,49 +10791,49 @@
     </row>
     <row r="49" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="63" t="s">
-        <v>139</v>
-      </c>
       <c r="C49" s="36">
-        <v>4301070971</v>
+        <v>4301071031</v>
       </c>
       <c r="D49" s="414">
-        <v>4607111036902</v>
+        <v>4607111038982</v>
       </c>
       <c r="E49" s="414"/>
       <c r="F49" s="62">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G49" s="37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H49" s="62">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I49" s="62">
-        <v>7.43</v>
+        <v>7.2859999999999996</v>
       </c>
       <c r="J49" s="37">
         <v>84</v>
       </c>
       <c r="K49" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L49" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L49" s="37" t="s">
-        <v>134</v>
-      </c>
       <c r="M49" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N49" s="38"/>
       <c r="O49" s="37">
         <v>180</v>
       </c>
       <c r="P49" s="436" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P003681/","Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» ф/в 0,9 ТМ «Горячая штучка»")</f>
-        <v>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» ф/в 0,9 ТМ «Горячая штучка»</v>
+        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P004203/","Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,7 сфера ТМ «Горячая штучка»")</f>
+        <v>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,7 сфера ТМ «Горячая штучка»</v>
       </c>
       <c r="Q49" s="416"/>
       <c r="R49" s="416"/>
@@ -10869,14 +10866,14 @@
         <v>46</v>
       </c>
       <c r="AC49" s="117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG49" s="81"/>
       <c r="AJ49" s="87" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="AK49" s="87">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BB49" s="118" t="s">
         <v>70</v>
@@ -10900,49 +10897,49 @@
     </row>
     <row r="50" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="63" t="s">
-        <v>141</v>
-      </c>
       <c r="C50" s="36">
-        <v>4301071031</v>
+        <v>4301070971</v>
       </c>
       <c r="D50" s="414">
-        <v>4607111038982</v>
+        <v>4607111036902</v>
       </c>
       <c r="E50" s="414"/>
       <c r="F50" s="62">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G50" s="37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H50" s="62">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I50" s="62">
-        <v>7.2859999999999996</v>
+        <v>7.43</v>
       </c>
       <c r="J50" s="37">
         <v>84</v>
       </c>
       <c r="K50" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="M50" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N50" s="38"/>
       <c r="O50" s="37">
         <v>180</v>
       </c>
       <c r="P50" s="437" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P004203/","Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,7 сфера ТМ «Горячая штучка»")</f>
-        <v>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» 0,7 сфера ТМ «Горячая штучка»</v>
+        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P003681/","Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» ф/в 0,9 ТМ «Горячая штучка»")</f>
+        <v>Пельмени «Бигбули #МЕГАМАСЛИЩЕ со сливочным маслом» ф/в 0,9 ТМ «Горячая штучка»</v>
       </c>
       <c r="Q50" s="416"/>
       <c r="R50" s="416"/>
@@ -10975,14 +10972,14 @@
         <v>46</v>
       </c>
       <c r="AC50" s="119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG50" s="81"/>
       <c r="AJ50" s="87" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="AK50" s="87">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BB50" s="120" t="s">
         <v>70</v>
@@ -11006,10 +11003,10 @@
     </row>
     <row r="51" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="63" t="s">
         <v>142</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>143</v>
       </c>
       <c r="C51" s="36">
         <v>4301071046</v>
@@ -11034,13 +11031,13 @@
         <v>84</v>
       </c>
       <c r="K51" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L51" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M51" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N51" s="38"/>
       <c r="O51" s="37">
@@ -11081,11 +11078,11 @@
         <v>46</v>
       </c>
       <c r="AC51" s="121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG51" s="81"/>
       <c r="AJ51" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK51" s="87">
         <v>1</v>
@@ -11112,49 +11109,49 @@
     </row>
     <row r="52" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="63" t="s">
-        <v>145</v>
-      </c>
       <c r="C52" s="36">
-        <v>4301070968</v>
+        <v>4301071047</v>
       </c>
       <c r="D52" s="414">
-        <v>4607111036889</v>
+        <v>4607111039330</v>
       </c>
       <c r="E52" s="414"/>
       <c r="F52" s="62">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G52" s="37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H52" s="62">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I52" s="62">
-        <v>7.4859999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="J52" s="37">
         <v>84</v>
       </c>
       <c r="K52" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L52" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L52" s="37" t="s">
-        <v>127</v>
-      </c>
       <c r="M52" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N52" s="38"/>
       <c r="O52" s="37">
         <v>180</v>
       </c>
       <c r="P52" s="439" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P003678/","Пельмени «Бигбули с мясом» 0,9 Сфера ТМ «Горячая штучка»")</f>
-        <v>Пельмени «Бигбули с мясом» 0,9 Сфера ТМ «Горячая штучка»</v>
+        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P004442/","Пельмени «Бигбули с мясом» 0,7 Сфера ТМ «Горячая штучка»")</f>
+        <v>Пельмени «Бигбули с мясом» 0,7 Сфера ТМ «Горячая штучка»</v>
       </c>
       <c r="Q52" s="416"/>
       <c r="R52" s="416"/>
@@ -11187,14 +11184,14 @@
         <v>46</v>
       </c>
       <c r="AC52" s="123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG52" s="81"/>
       <c r="AJ52" s="87" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="AK52" s="87">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="BB52" s="124" t="s">
         <v>70</v>
@@ -11218,49 +11215,49 @@
     </row>
     <row r="53" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="63" t="s">
-        <v>147</v>
-      </c>
       <c r="C53" s="36">
-        <v>4301071047</v>
+        <v>4301070968</v>
       </c>
       <c r="D53" s="414">
-        <v>4607111039330</v>
+        <v>4607111036889</v>
       </c>
       <c r="E53" s="414"/>
       <c r="F53" s="62">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G53" s="37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H53" s="62">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I53" s="62">
-        <v>7.3</v>
+        <v>7.4859999999999998</v>
       </c>
       <c r="J53" s="37">
         <v>84</v>
       </c>
       <c r="K53" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L53" s="37" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N53" s="38"/>
       <c r="O53" s="37">
         <v>180</v>
       </c>
       <c r="P53" s="440" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P004442/","Пельмени «Бигбули с мясом» 0,7 Сфера ТМ «Горячая штучка»")</f>
-        <v>Пельмени «Бигбули с мясом» 0,7 Сфера ТМ «Горячая штучка»</v>
+        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бигбули ГШ/Пельмени/P003678/","Пельмени «Бигбули с мясом» 0,9 Сфера ТМ «Горячая штучка»")</f>
+        <v>Пельмени «Бигбули с мясом» 0,9 Сфера ТМ «Горячая штучка»</v>
       </c>
       <c r="Q53" s="416"/>
       <c r="R53" s="416"/>
@@ -11293,14 +11290,14 @@
         <v>46</v>
       </c>
       <c r="AC53" s="125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG53" s="81"/>
       <c r="AJ53" s="87" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AK53" s="87">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="BB53" s="126" t="s">
         <v>70</v>
@@ -11409,7 +11406,7 @@
     </row>
     <row r="56" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="412" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56" s="412"/>
       <c r="C56" s="412"/>
@@ -11442,7 +11439,7 @@
     </row>
     <row r="57" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="413" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B57" s="413"/>
       <c r="C57" s="413"/>
@@ -11475,10 +11472,10 @@
     </row>
     <row r="58" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="63" t="s">
         <v>150</v>
-      </c>
-      <c r="B58" s="63" t="s">
-        <v>151</v>
       </c>
       <c r="C58" s="36">
         <v>4301100079</v>
@@ -11503,13 +11500,13 @@
         <v>140</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L58" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M58" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N58" s="38"/>
       <c r="O58" s="37">
@@ -11550,17 +11547,17 @@
         <v>46</v>
       </c>
       <c r="AC58" s="127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG58" s="81"/>
       <c r="AJ58" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK58" s="87">
         <v>1</v>
       </c>
       <c r="BB58" s="128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM58" s="81">
         <f>IFERROR(X58*I58,"0")</f>
@@ -11666,7 +11663,7 @@
     </row>
     <row r="61" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="413" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" s="413"/>
       <c r="C61" s="413"/>
@@ -11699,10 +11696,10 @@
     </row>
     <row r="62" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="63" t="s">
         <v>153</v>
-      </c>
-      <c r="B62" s="63" t="s">
-        <v>154</v>
       </c>
       <c r="C62" s="36">
         <v>4301132044</v>
@@ -11727,13 +11724,13 @@
         <v>140</v>
       </c>
       <c r="K62" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L62" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M62" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N62" s="38"/>
       <c r="O62" s="37">
@@ -11774,17 +11771,17 @@
         <v>46</v>
       </c>
       <c r="AC62" s="129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG62" s="81"/>
       <c r="AJ62" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK62" s="87">
         <v>1</v>
       </c>
       <c r="BB62" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM62" s="81">
         <f>IFERROR(X62*I62,"0")</f>
@@ -11890,7 +11887,7 @@
     </row>
     <row r="65" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="413" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65" s="413"/>
       <c r="C65" s="413"/>
@@ -11923,10 +11920,10 @@
     </row>
     <row r="66" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="63" t="s">
         <v>157</v>
-      </c>
-      <c r="B66" s="63" t="s">
-        <v>158</v>
       </c>
       <c r="C66" s="36">
         <v>4301136018</v>
@@ -11951,13 +11948,13 @@
         <v>140</v>
       </c>
       <c r="K66" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L66" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M66" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N66" s="38"/>
       <c r="O66" s="37">
@@ -11998,17 +11995,17 @@
         <v>46</v>
       </c>
       <c r="AC66" s="131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG66" s="81"/>
       <c r="AJ66" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK66" s="87">
         <v>1</v>
       </c>
       <c r="BB66" s="132" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM66" s="81">
         <f>IFERROR(X66*I66,"0")</f>
@@ -12029,10 +12026,10 @@
     </row>
     <row r="67" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="63" t="s">
         <v>160</v>
-      </c>
-      <c r="B67" s="63" t="s">
-        <v>161</v>
       </c>
       <c r="C67" s="36">
         <v>4301136015</v>
@@ -12057,13 +12054,13 @@
         <v>126</v>
       </c>
       <c r="K67" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L67" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M67" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N67" s="38"/>
       <c r="O67" s="37">
@@ -12104,17 +12101,17 @@
         <v>46</v>
       </c>
       <c r="AC67" s="133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG67" s="81"/>
       <c r="AJ67" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK67" s="87">
         <v>1</v>
       </c>
       <c r="BB67" s="134" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM67" s="81">
         <f>IFERROR(X67*I67,"0")</f>
@@ -12220,7 +12217,7 @@
     </row>
     <row r="70" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B70" s="413"/>
       <c r="C70" s="413"/>
@@ -12253,10 +12250,10 @@
     </row>
     <row r="71" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="63" t="s">
         <v>163</v>
-      </c>
-      <c r="B71" s="63" t="s">
-        <v>164</v>
       </c>
       <c r="C71" s="36">
         <v>4301135127</v>
@@ -12281,13 +12278,13 @@
         <v>140</v>
       </c>
       <c r="K71" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L71" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M71" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N71" s="38"/>
       <c r="O71" s="37">
@@ -12328,17 +12325,17 @@
         <v>46</v>
       </c>
       <c r="AC71" s="135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG71" s="81"/>
       <c r="AJ71" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK71" s="87">
         <v>1</v>
       </c>
       <c r="BB71" s="136" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM71" s="81">
         <f>IFERROR(X71*I71,"0")</f>
@@ -12359,10 +12356,10 @@
     </row>
     <row r="72" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="63" t="s">
         <v>165</v>
-      </c>
-      <c r="B72" s="63" t="s">
-        <v>166</v>
       </c>
       <c r="C72" s="36">
         <v>4301135200</v>
@@ -12387,13 +12384,13 @@
         <v>140</v>
       </c>
       <c r="K72" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L72" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M72" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N72" s="38"/>
       <c r="O72" s="37">
@@ -12434,17 +12431,17 @@
         <v>46</v>
       </c>
       <c r="AC72" s="137" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG72" s="81"/>
       <c r="AJ72" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK72" s="87">
         <v>1</v>
       </c>
       <c r="BB72" s="138" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM72" s="81">
         <f>IFERROR(X72*I72,"0")</f>
@@ -12465,10 +12462,10 @@
     </row>
     <row r="73" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="63" t="s">
         <v>168</v>
-      </c>
-      <c r="B73" s="63" t="s">
-        <v>169</v>
       </c>
       <c r="C73" s="36">
         <v>4301135199</v>
@@ -12493,13 +12490,13 @@
         <v>140</v>
       </c>
       <c r="K73" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L73" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N73" s="38"/>
       <c r="O73" s="37">
@@ -12540,17 +12537,17 @@
         <v>46</v>
       </c>
       <c r="AC73" s="139" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG73" s="81"/>
       <c r="AJ73" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK73" s="87">
         <v>1</v>
       </c>
       <c r="BB73" s="140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM73" s="81">
         <f>IFERROR(X73*I73,"0")</f>
@@ -12656,7 +12653,7 @@
     </row>
     <row r="76" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="412" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B76" s="412"/>
       <c r="C76" s="412"/>
@@ -12689,7 +12686,7 @@
     </row>
     <row r="77" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="413"/>
       <c r="C77" s="413"/>
@@ -12722,10 +12719,10 @@
     </row>
     <row r="78" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="63" t="s">
         <v>171</v>
-      </c>
-      <c r="B78" s="63" t="s">
-        <v>172</v>
       </c>
       <c r="C78" s="36">
         <v>4301070977</v>
@@ -12750,13 +12747,13 @@
         <v>234</v>
       </c>
       <c r="K78" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L78" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M78" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N78" s="38"/>
       <c r="O78" s="37">
@@ -12797,11 +12794,11 @@
         <v>46</v>
       </c>
       <c r="AC78" s="141" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG78" s="81"/>
       <c r="AJ78" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK78" s="87">
         <v>18</v>
@@ -12828,10 +12825,10 @@
     </row>
     <row r="79" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="63" t="s">
         <v>175</v>
-      </c>
-      <c r="B79" s="63" t="s">
-        <v>176</v>
       </c>
       <c r="C79" s="36">
         <v>4301070981</v>
@@ -12856,13 +12853,13 @@
         <v>144</v>
       </c>
       <c r="K79" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L79" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M79" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N79" s="38"/>
       <c r="O79" s="37">
@@ -12903,11 +12900,11 @@
         <v>46</v>
       </c>
       <c r="AC79" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG79" s="81"/>
       <c r="AJ79" s="87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK79" s="87">
         <v>144</v>
@@ -13019,7 +13016,7 @@
     </row>
     <row r="82" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="412" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B82" s="412"/>
       <c r="C82" s="412"/>
@@ -13052,7 +13049,7 @@
     </row>
     <row r="83" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B83" s="413"/>
       <c r="C83" s="413"/>
@@ -13085,10 +13082,10 @@
     </row>
     <row r="84" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="63" t="s">
         <v>178</v>
-      </c>
-      <c r="B84" s="63" t="s">
-        <v>179</v>
       </c>
       <c r="C84" s="36">
         <v>4301135584</v>
@@ -13113,20 +13110,20 @@
         <v>70</v>
       </c>
       <c r="K84" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L84" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M84" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N84" s="38"/>
       <c r="O84" s="37">
         <v>180</v>
       </c>
       <c r="P84" s="450" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q84" s="416"/>
       <c r="R84" s="416"/>
@@ -13159,17 +13156,17 @@
         <v>46</v>
       </c>
       <c r="AC84" s="145" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG84" s="81"/>
       <c r="AJ84" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK84" s="87">
         <v>1</v>
       </c>
       <c r="BB84" s="146" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM84" s="81">
         <f>IFERROR(X84*I84,"0")</f>
@@ -13275,7 +13272,7 @@
     </row>
     <row r="87" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="412" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B87" s="412"/>
       <c r="C87" s="412"/>
@@ -13308,7 +13305,7 @@
     </row>
     <row r="88" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="413" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B88" s="413"/>
       <c r="C88" s="413"/>
@@ -13341,10 +13338,10 @@
     </row>
     <row r="89" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="63" t="s">
         <v>184</v>
-      </c>
-      <c r="B89" s="63" t="s">
-        <v>185</v>
       </c>
       <c r="C89" s="36">
         <v>4301131022</v>
@@ -13369,13 +13366,13 @@
         <v>70</v>
       </c>
       <c r="K89" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L89" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M89" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N89" s="38"/>
       <c r="O89" s="37">
@@ -13416,17 +13413,17 @@
         <v>46</v>
       </c>
       <c r="AC89" s="147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG89" s="81"/>
       <c r="AJ89" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK89" s="87">
         <v>14</v>
       </c>
       <c r="BB89" s="148" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM89" s="81">
         <f>IFERROR(X89*I89,"0")</f>
@@ -13447,10 +13444,10 @@
     </row>
     <row r="90" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" s="63" t="s">
         <v>187</v>
-      </c>
-      <c r="B90" s="63" t="s">
-        <v>188</v>
       </c>
       <c r="C90" s="36">
         <v>4301131021</v>
@@ -13475,13 +13472,13 @@
         <v>70</v>
       </c>
       <c r="K90" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L90" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M90" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N90" s="38"/>
       <c r="O90" s="37">
@@ -13522,17 +13519,17 @@
         <v>46</v>
       </c>
       <c r="AC90" s="149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG90" s="81"/>
       <c r="AJ90" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK90" s="87">
         <v>14</v>
       </c>
       <c r="BB90" s="150" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM90" s="81">
         <f>IFERROR(X90*I90,"0")</f>
@@ -13638,7 +13635,7 @@
     </row>
     <row r="93" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="412" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B93" s="412"/>
       <c r="C93" s="412"/>
@@ -13671,7 +13668,7 @@
     </row>
     <row r="94" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B94" s="413"/>
       <c r="C94" s="413"/>
@@ -13704,10 +13701,10 @@
     </row>
     <row r="95" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="63" t="s">
         <v>191</v>
-      </c>
-      <c r="B95" s="63" t="s">
-        <v>192</v>
       </c>
       <c r="C95" s="36">
         <v>4301135569</v>
@@ -13732,20 +13729,20 @@
         <v>70</v>
       </c>
       <c r="K95" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L95" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M95" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N95" s="38"/>
       <c r="O95" s="37">
         <v>180</v>
       </c>
       <c r="P95" s="453" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q95" s="416"/>
       <c r="R95" s="416"/>
@@ -13778,17 +13775,17 @@
         <v>46</v>
       </c>
       <c r="AC95" s="151" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG95" s="81"/>
       <c r="AJ95" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK95" s="87">
         <v>1</v>
       </c>
       <c r="BB95" s="152" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM95" s="81">
         <f t="shared" ref="BM95:BM100" si="8">IFERROR(X95*I95,"0")</f>
@@ -13809,10 +13806,10 @@
     </row>
     <row r="96" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="63" t="s">
         <v>194</v>
-      </c>
-      <c r="B96" s="63" t="s">
-        <v>195</v>
       </c>
       <c r="C96" s="36">
         <v>4301135565</v>
@@ -13837,13 +13834,13 @@
         <v>70</v>
       </c>
       <c r="K96" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L96" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M96" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N96" s="38"/>
       <c r="O96" s="37">
@@ -13884,17 +13881,17 @@
         <v>46</v>
       </c>
       <c r="AC96" s="153" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG96" s="81"/>
       <c r="AJ96" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK96" s="87">
         <v>1</v>
       </c>
       <c r="BB96" s="154" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM96" s="81">
         <f t="shared" si="8"/>
@@ -13915,10 +13912,10 @@
     </row>
     <row r="97" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="63" t="s">
         <v>196</v>
-      </c>
-      <c r="B97" s="63" t="s">
-        <v>197</v>
       </c>
       <c r="C97" s="36">
         <v>4301135575</v>
@@ -13943,20 +13940,20 @@
         <v>70</v>
       </c>
       <c r="K97" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L97" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M97" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N97" s="38"/>
       <c r="O97" s="37">
         <v>180</v>
       </c>
       <c r="P97" s="455" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q97" s="416"/>
       <c r="R97" s="416"/>
@@ -13989,17 +13986,17 @@
         <v>46</v>
       </c>
       <c r="AC97" s="155" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG97" s="81"/>
       <c r="AJ97" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK97" s="87">
         <v>1</v>
       </c>
       <c r="BB97" s="156" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM97" s="81">
         <f t="shared" si="8"/>
@@ -14020,10 +14017,10 @@
     </row>
     <row r="98" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="63" t="s">
         <v>200</v>
-      </c>
-      <c r="B98" s="63" t="s">
-        <v>201</v>
       </c>
       <c r="C98" s="36">
         <v>4301135578</v>
@@ -14048,13 +14045,13 @@
         <v>70</v>
       </c>
       <c r="K98" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L98" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M98" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N98" s="38"/>
       <c r="O98" s="37">
@@ -14095,17 +14092,17 @@
         <v>46</v>
       </c>
       <c r="AC98" s="157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG98" s="81"/>
       <c r="AJ98" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK98" s="87">
         <v>1</v>
       </c>
       <c r="BB98" s="158" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM98" s="81">
         <f t="shared" si="8"/>
@@ -14126,10 +14123,10 @@
     </row>
     <row r="99" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="63" t="s">
         <v>202</v>
-      </c>
-      <c r="B99" s="63" t="s">
-        <v>203</v>
       </c>
       <c r="C99" s="36">
         <v>4301135290</v>
@@ -14154,13 +14151,13 @@
         <v>70</v>
       </c>
       <c r="K99" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L99" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M99" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N99" s="38"/>
       <c r="O99" s="37">
@@ -14201,17 +14198,17 @@
         <v>46</v>
       </c>
       <c r="AC99" s="159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG99" s="81"/>
       <c r="AJ99" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK99" s="87">
         <v>1</v>
       </c>
       <c r="BB99" s="160" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM99" s="81">
         <f t="shared" si="8"/>
@@ -14232,10 +14229,10 @@
     </row>
     <row r="100" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="63" t="s">
         <v>204</v>
-      </c>
-      <c r="B100" s="63" t="s">
-        <v>205</v>
       </c>
       <c r="C100" s="36">
         <v>4301135285</v>
@@ -14260,13 +14257,13 @@
         <v>70</v>
       </c>
       <c r="K100" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L100" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M100" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N100" s="38"/>
       <c r="O100" s="37">
@@ -14307,17 +14304,17 @@
         <v>46</v>
       </c>
       <c r="AC100" s="161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG100" s="81"/>
       <c r="AJ100" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK100" s="87">
         <v>14</v>
       </c>
       <c r="BB100" s="162" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM100" s="81">
         <f t="shared" si="8"/>
@@ -14423,7 +14420,7 @@
     </row>
     <row r="103" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="412" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B103" s="412"/>
       <c r="C103" s="412"/>
@@ -14456,7 +14453,7 @@
     </row>
     <row r="104" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="413" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B104" s="413"/>
       <c r="C104" s="413"/>
@@ -14489,10 +14486,10 @@
     </row>
     <row r="105" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="63" t="s">
         <v>209</v>
-      </c>
-      <c r="B105" s="63" t="s">
-        <v>210</v>
       </c>
       <c r="C105" s="36">
         <v>4301190068</v>
@@ -14517,20 +14514,20 @@
         <v>100</v>
       </c>
       <c r="K105" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L105" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M105" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N105" s="38"/>
       <c r="O105" s="37">
         <v>180</v>
       </c>
       <c r="P105" s="459" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q105" s="416"/>
       <c r="R105" s="416"/>
@@ -14563,17 +14560,17 @@
         <v>46</v>
       </c>
       <c r="AC105" s="163" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG105" s="81"/>
       <c r="AJ105" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK105" s="87">
         <v>1</v>
       </c>
       <c r="BB105" s="164" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM105" s="81">
         <f>IFERROR(X105*I105,"0")</f>
@@ -14679,7 +14676,7 @@
     </row>
     <row r="108" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="412" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108" s="412"/>
       <c r="C108" s="412"/>
@@ -14712,7 +14709,7 @@
     </row>
     <row r="109" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="413" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B109" s="413"/>
       <c r="C109" s="413"/>
@@ -14745,10 +14742,10 @@
     </row>
     <row r="110" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="63" t="s">
         <v>215</v>
-      </c>
-      <c r="B110" s="63" t="s">
-        <v>216</v>
       </c>
       <c r="C110" s="36">
         <v>4301136040</v>
@@ -14773,13 +14770,13 @@
         <v>70</v>
       </c>
       <c r="K110" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L110" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M110" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N110" s="38"/>
       <c r="O110" s="37">
@@ -14820,17 +14817,17 @@
         <v>46</v>
       </c>
       <c r="AC110" s="165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG110" s="81"/>
       <c r="AJ110" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK110" s="87">
         <v>1</v>
       </c>
       <c r="BB110" s="166" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM110" s="81">
         <f>IFERROR(X110*I110,"0")</f>
@@ -14851,10 +14848,10 @@
     </row>
     <row r="111" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="63" t="s">
         <v>218</v>
-      </c>
-      <c r="B111" s="63" t="s">
-        <v>219</v>
       </c>
       <c r="C111" s="36">
         <v>4301136042</v>
@@ -14879,13 +14876,13 @@
         <v>126</v>
       </c>
       <c r="K111" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L111" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M111" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N111" s="38"/>
       <c r="O111" s="37">
@@ -14926,17 +14923,17 @@
         <v>46</v>
       </c>
       <c r="AC111" s="167" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG111" s="81"/>
       <c r="AJ111" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK111" s="87">
         <v>14</v>
       </c>
       <c r="BB111" s="168" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM111" s="81">
         <f>IFERROR(X111*I111,"0")</f>
@@ -14957,10 +14954,10 @@
     </row>
     <row r="112" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="63" t="s">
         <v>221</v>
-      </c>
-      <c r="B112" s="63" t="s">
-        <v>222</v>
       </c>
       <c r="C112" s="36">
         <v>4301136039</v>
@@ -14985,13 +14982,13 @@
         <v>84</v>
       </c>
       <c r="K112" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L112" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L112" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M112" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N112" s="38"/>
       <c r="O112" s="37">
@@ -15032,17 +15029,17 @@
         <v>46</v>
       </c>
       <c r="AC112" s="169" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG112" s="81"/>
       <c r="AJ112" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK112" s="87">
         <v>1</v>
       </c>
       <c r="BB112" s="170" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM112" s="81">
         <f>IFERROR(X112*I112,"0")</f>
@@ -15148,7 +15145,7 @@
     </row>
     <row r="115" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="412" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B115" s="412"/>
       <c r="C115" s="412"/>
@@ -15181,7 +15178,7 @@
     </row>
     <row r="116" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B116" s="413"/>
       <c r="C116" s="413"/>
@@ -15214,10 +15211,10 @@
     </row>
     <row r="117" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B117" s="63" t="s">
         <v>225</v>
-      </c>
-      <c r="B117" s="63" t="s">
-        <v>226</v>
       </c>
       <c r="C117" s="36">
         <v>4301071051</v>
@@ -15242,13 +15239,13 @@
         <v>84</v>
       </c>
       <c r="K117" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L117" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L117" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M117" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N117" s="38"/>
       <c r="O117" s="37">
@@ -15289,11 +15286,11 @@
         <v>46</v>
       </c>
       <c r="AC117" s="171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG117" s="81"/>
       <c r="AJ117" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK117" s="87">
         <v>1</v>
@@ -15320,49 +15317,49 @@
     </row>
     <row r="118" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="B118" s="63" t="s">
-        <v>228</v>
-      </c>
       <c r="C118" s="36">
-        <v>4301070976</v>
+        <v>4301071038</v>
       </c>
       <c r="D118" s="414">
-        <v>4607111034144</v>
+        <v>4607111039248</v>
       </c>
       <c r="E118" s="414"/>
       <c r="F118" s="62">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G118" s="37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H118" s="62">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I118" s="62">
-        <v>7.4859999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="J118" s="37">
         <v>84</v>
       </c>
       <c r="K118" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L118" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L118" s="37" t="s">
-        <v>127</v>
-      </c>
       <c r="M118" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N118" s="38"/>
       <c r="O118" s="37">
         <v>180</v>
       </c>
       <c r="P118" s="464" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бульмени ГШ/Пельмени/P003686/","Пельмени «Бульмени с говядиной и свининой» 0,9 Сфера ТМ «Горячая штучка»")</f>
-        <v>Пельмени «Бульмени с говядиной и свининой» 0,9 Сфера ТМ «Горячая штучка»</v>
+        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бульмени ГШ/Пельмени/P004345/","Пельмени «Бульмени с говядиной и свининой» 0,7 Сфера ТМ «Горячая штучка»")</f>
+        <v>Пельмени «Бульмени с говядиной и свининой» 0,7 Сфера ТМ «Горячая штучка»</v>
       </c>
       <c r="Q118" s="416"/>
       <c r="R118" s="416"/>
@@ -15395,14 +15392,14 @@
         <v>46</v>
       </c>
       <c r="AC118" s="173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG118" s="81"/>
       <c r="AJ118" s="87" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="AK118" s="87">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="BB118" s="174" t="s">
         <v>70</v>
@@ -15426,49 +15423,49 @@
     </row>
     <row r="119" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="B119" s="63" t="s">
-        <v>230</v>
-      </c>
       <c r="C119" s="36">
-        <v>4301071038</v>
+        <v>4301070976</v>
       </c>
       <c r="D119" s="414">
-        <v>4607111039248</v>
+        <v>4607111034144</v>
       </c>
       <c r="E119" s="414"/>
       <c r="F119" s="62">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G119" s="37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H119" s="62">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I119" s="62">
-        <v>7.3</v>
+        <v>7.4859999999999998</v>
       </c>
       <c r="J119" s="37">
         <v>84</v>
       </c>
       <c r="K119" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L119" s="37" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="M119" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N119" s="38"/>
       <c r="O119" s="37">
         <v>180</v>
       </c>
       <c r="P119" s="465" t="str">
-        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бульмени ГШ/Пельмени/P004345/","Пельмени «Бульмени с говядиной и свининой» 0,7 Сфера ТМ «Горячая штучка»")</f>
-        <v>Пельмени «Бульмени с говядиной и свининой» 0,7 Сфера ТМ «Горячая штучка»</v>
+        <f>HYPERLINK("https://abi.ru/products/Замороженные/Горячая штучка/Бульмени ГШ/Пельмени/P003686/","Пельмени «Бульмени с говядиной и свининой» 0,9 Сфера ТМ «Горячая штучка»")</f>
+        <v>Пельмени «Бульмени с говядиной и свининой» 0,9 Сфера ТМ «Горячая штучка»</v>
       </c>
       <c r="Q119" s="416"/>
       <c r="R119" s="416"/>
@@ -15501,14 +15498,14 @@
         <v>46</v>
       </c>
       <c r="AC119" s="175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG119" s="81"/>
       <c r="AJ119" s="87" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AK119" s="87">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="BB119" s="176" t="s">
         <v>70</v>
@@ -15532,10 +15529,10 @@
     </row>
     <row r="120" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="63" t="s">
         <v>231</v>
-      </c>
-      <c r="B120" s="63" t="s">
-        <v>232</v>
       </c>
       <c r="C120" s="36">
         <v>4301071049</v>
@@ -15560,13 +15557,13 @@
         <v>84</v>
       </c>
       <c r="K120" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L120" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L120" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M120" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N120" s="38"/>
       <c r="O120" s="37">
@@ -15607,11 +15604,11 @@
         <v>46</v>
       </c>
       <c r="AC120" s="177" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG120" s="81"/>
       <c r="AJ120" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK120" s="87">
         <v>1</v>
@@ -15638,10 +15635,10 @@
     </row>
     <row r="121" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" s="63" t="s">
         <v>233</v>
-      </c>
-      <c r="B121" s="63" t="s">
-        <v>234</v>
       </c>
       <c r="C121" s="36">
         <v>4301071039</v>
@@ -15666,13 +15663,13 @@
         <v>84</v>
       </c>
       <c r="K121" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L121" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L121" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M121" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N121" s="38"/>
       <c r="O121" s="37">
@@ -15713,11 +15710,11 @@
         <v>46</v>
       </c>
       <c r="AC121" s="179" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG121" s="81"/>
       <c r="AJ121" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK121" s="87">
         <v>1</v>
@@ -15744,10 +15741,10 @@
     </row>
     <row r="122" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" s="63" t="s">
         <v>235</v>
-      </c>
-      <c r="B122" s="63" t="s">
-        <v>236</v>
       </c>
       <c r="C122" s="36">
         <v>4301070958</v>
@@ -15772,13 +15769,13 @@
         <v>84</v>
       </c>
       <c r="K122" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L122" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M122" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N122" s="38"/>
       <c r="O122" s="37">
@@ -15819,11 +15816,11 @@
         <v>46</v>
       </c>
       <c r="AC122" s="181" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG122" s="81"/>
       <c r="AJ122" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK122" s="87">
         <v>12</v>
@@ -15935,7 +15932,7 @@
     </row>
     <row r="125" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="412" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B125" s="412"/>
       <c r="C125" s="412"/>
@@ -15968,7 +15965,7 @@
     </row>
     <row r="126" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B126" s="413"/>
       <c r="C126" s="413"/>
@@ -16001,10 +15998,10 @@
     </row>
     <row r="127" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="B127" s="63" t="s">
         <v>239</v>
-      </c>
-      <c r="B127" s="63" t="s">
-        <v>240</v>
       </c>
       <c r="C127" s="36">
         <v>4301135533</v>
@@ -16029,13 +16026,13 @@
         <v>70</v>
       </c>
       <c r="K127" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L127" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M127" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N127" s="38"/>
       <c r="O127" s="37">
@@ -16076,17 +16073,17 @@
         <v>46</v>
       </c>
       <c r="AC127" s="183" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG127" s="81"/>
       <c r="AJ127" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK127" s="87">
         <v>1</v>
       </c>
       <c r="BB127" s="184" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM127" s="81">
         <f>IFERROR(X127*I127,"0")</f>
@@ -16107,10 +16104,10 @@
     </row>
     <row r="128" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B128" s="63" t="s">
         <v>242</v>
-      </c>
-      <c r="B128" s="63" t="s">
-        <v>243</v>
       </c>
       <c r="C128" s="36">
         <v>4301135532</v>
@@ -16135,13 +16132,13 @@
         <v>70</v>
       </c>
       <c r="K128" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L128" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M128" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N128" s="38"/>
       <c r="O128" s="37">
@@ -16182,17 +16179,17 @@
         <v>46</v>
       </c>
       <c r="AC128" s="185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG128" s="81"/>
       <c r="AJ128" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK128" s="87">
         <v>1</v>
       </c>
       <c r="BB128" s="186" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM128" s="81">
         <f>IFERROR(X128*I128,"0")</f>
@@ -16298,7 +16295,7 @@
     </row>
     <row r="131" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="412" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B131" s="412"/>
       <c r="C131" s="412"/>
@@ -16331,7 +16328,7 @@
     </row>
     <row r="132" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B132" s="413"/>
       <c r="C132" s="413"/>
@@ -16364,10 +16361,10 @@
     </row>
     <row r="133" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="B133" s="63" t="s">
         <v>245</v>
-      </c>
-      <c r="B133" s="63" t="s">
-        <v>246</v>
       </c>
       <c r="C133" s="36">
         <v>4301135311</v>
@@ -16392,13 +16389,13 @@
         <v>70</v>
       </c>
       <c r="K133" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L133" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M133" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N133" s="38"/>
       <c r="O133" s="37">
@@ -16439,17 +16436,17 @@
         <v>46</v>
       </c>
       <c r="AC133" s="187" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG133" s="81"/>
       <c r="AJ133" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK133" s="87">
         <v>14</v>
       </c>
       <c r="BB133" s="188" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM133" s="81">
         <f>IFERROR(X133*I133,"0")</f>
@@ -16470,10 +16467,10 @@
     </row>
     <row r="134" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" s="63" t="s">
         <v>248</v>
-      </c>
-      <c r="B134" s="63" t="s">
-        <v>249</v>
       </c>
       <c r="C134" s="36">
         <v>4301135534</v>
@@ -16498,13 +16495,13 @@
         <v>70</v>
       </c>
       <c r="K134" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L134" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M134" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N134" s="38"/>
       <c r="O134" s="37">
@@ -16545,17 +16542,17 @@
         <v>46</v>
       </c>
       <c r="AC134" s="189" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG134" s="81"/>
       <c r="AJ134" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK134" s="87">
         <v>1</v>
       </c>
       <c r="BB134" s="190" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM134" s="81">
         <f>IFERROR(X134*I134,"0")</f>
@@ -16661,7 +16658,7 @@
     </row>
     <row r="137" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="412" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B137" s="412"/>
       <c r="C137" s="412"/>
@@ -16694,7 +16691,7 @@
     </row>
     <row r="138" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138" s="413"/>
       <c r="C138" s="413"/>
@@ -16727,10 +16724,10 @@
     </row>
     <row r="139" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="B139" s="63" t="s">
         <v>252</v>
-      </c>
-      <c r="B139" s="63" t="s">
-        <v>253</v>
       </c>
       <c r="C139" s="36">
         <v>4301135275</v>
@@ -16755,13 +16752,13 @@
         <v>70</v>
       </c>
       <c r="K139" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L139" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M139" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N139" s="38"/>
       <c r="O139" s="37">
@@ -16802,17 +16799,17 @@
         <v>46</v>
       </c>
       <c r="AC139" s="191" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG139" s="81"/>
       <c r="AJ139" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK139" s="87">
         <v>14</v>
       </c>
       <c r="BB139" s="192" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM139" s="81">
         <f>IFERROR(X139*I139,"0")</f>
@@ -16833,10 +16830,10 @@
     </row>
     <row r="140" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="B140" s="63" t="s">
         <v>255</v>
-      </c>
-      <c r="B140" s="63" t="s">
-        <v>256</v>
       </c>
       <c r="C140" s="36">
         <v>4301135277</v>
@@ -16861,13 +16858,13 @@
         <v>70</v>
       </c>
       <c r="K140" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L140" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M140" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N140" s="38"/>
       <c r="O140" s="37">
@@ -16908,17 +16905,17 @@
         <v>46</v>
       </c>
       <c r="AC140" s="193" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG140" s="81"/>
       <c r="AJ140" s="87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK140" s="87">
         <v>70</v>
       </c>
       <c r="BB140" s="194" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM140" s="81">
         <f>IFERROR(X140*I140,"0")</f>
@@ -17024,7 +17021,7 @@
     </row>
     <row r="143" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="412" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B143" s="412"/>
       <c r="C143" s="412"/>
@@ -17057,7 +17054,7 @@
     </row>
     <row r="144" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B144" s="413"/>
       <c r="C144" s="413"/>
@@ -17090,10 +17087,10 @@
     </row>
     <row r="145" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="B145" s="63" t="s">
         <v>258</v>
-      </c>
-      <c r="B145" s="63" t="s">
-        <v>259</v>
       </c>
       <c r="C145" s="36">
         <v>4301135570</v>
@@ -17118,20 +17115,20 @@
         <v>70</v>
       </c>
       <c r="K145" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L145" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M145" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N145" s="38"/>
       <c r="O145" s="37">
         <v>180</v>
       </c>
       <c r="P145" s="475" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q145" s="416"/>
       <c r="R145" s="416"/>
@@ -17164,17 +17161,17 @@
         <v>46</v>
       </c>
       <c r="AC145" s="195" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG145" s="81"/>
       <c r="AJ145" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK145" s="87">
         <v>1</v>
       </c>
       <c r="BB145" s="196" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM145" s="81">
         <f>IFERROR(X145*I145,"0")</f>
@@ -17280,7 +17277,7 @@
     </row>
     <row r="148" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="412" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B148" s="412"/>
       <c r="C148" s="412"/>
@@ -17313,7 +17310,7 @@
     </row>
     <row r="149" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B149" s="413"/>
       <c r="C149" s="413"/>
@@ -17346,10 +17343,10 @@
     </row>
     <row r="150" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="B150" s="63" t="s">
         <v>263</v>
-      </c>
-      <c r="B150" s="63" t="s">
-        <v>264</v>
       </c>
       <c r="C150" s="36">
         <v>4301135596</v>
@@ -17374,13 +17371,13 @@
         <v>126</v>
       </c>
       <c r="K150" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L150" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M150" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N150" s="38"/>
       <c r="O150" s="37">
@@ -17421,17 +17418,17 @@
         <v>46</v>
       </c>
       <c r="AC150" s="197" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG150" s="81"/>
       <c r="AJ150" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK150" s="87">
         <v>1</v>
       </c>
       <c r="BB150" s="198" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM150" s="81">
         <f>IFERROR(X150*I150,"0")</f>
@@ -17537,7 +17534,7 @@
     </row>
     <row r="153" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="412" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B153" s="412"/>
       <c r="C153" s="412"/>
@@ -17570,7 +17567,7 @@
     </row>
     <row r="154" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="413" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B154" s="413"/>
       <c r="C154" s="413"/>
@@ -17603,10 +17600,10 @@
     </row>
     <row r="155" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="B155" s="63" t="s">
         <v>267</v>
-      </c>
-      <c r="B155" s="63" t="s">
-        <v>268</v>
       </c>
       <c r="C155" s="36">
         <v>4301071054</v>
@@ -17631,13 +17628,13 @@
         <v>72</v>
       </c>
       <c r="K155" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L155" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M155" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N155" s="38"/>
       <c r="O155" s="37">
@@ -17678,17 +17675,17 @@
         <v>46</v>
       </c>
       <c r="AC155" s="199" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG155" s="81"/>
       <c r="AJ155" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK155" s="87">
         <v>1</v>
       </c>
       <c r="BB155" s="200" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM155" s="81">
         <f>IFERROR(X155*I155,"0")</f>
@@ -17709,10 +17706,10 @@
     </row>
     <row r="156" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" s="63" t="s">
         <v>271</v>
-      </c>
-      <c r="B156" s="63" t="s">
-        <v>272</v>
       </c>
       <c r="C156" s="36">
         <v>4301135540</v>
@@ -17737,13 +17734,13 @@
         <v>72</v>
       </c>
       <c r="K156" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L156" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M156" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N156" s="38"/>
       <c r="O156" s="37">
@@ -17784,17 +17781,17 @@
         <v>46</v>
       </c>
       <c r="AC156" s="201" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG156" s="81"/>
       <c r="AJ156" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK156" s="87">
         <v>1</v>
       </c>
       <c r="BB156" s="202" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM156" s="81">
         <f>IFERROR(X156*I156,"0")</f>
@@ -17900,7 +17897,7 @@
     </row>
     <row r="159" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="412" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B159" s="412"/>
       <c r="C159" s="412"/>
@@ -17933,7 +17930,7 @@
     </row>
     <row r="160" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160" s="413"/>
       <c r="C160" s="413"/>
@@ -17966,10 +17963,10 @@
     </row>
     <row r="161" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="B161" s="63" t="s">
         <v>274</v>
-      </c>
-      <c r="B161" s="63" t="s">
-        <v>275</v>
       </c>
       <c r="C161" s="36">
         <v>4301135281</v>
@@ -17994,13 +17991,13 @@
         <v>140</v>
       </c>
       <c r="K161" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L161" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M161" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N161" s="38"/>
       <c r="O161" s="37">
@@ -18041,17 +18038,17 @@
         <v>46</v>
       </c>
       <c r="AC161" s="203" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG161" s="81"/>
       <c r="AJ161" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK161" s="87">
         <v>1</v>
       </c>
       <c r="BB161" s="204" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM161" s="81">
         <f>IFERROR(X161*I161,"0")</f>
@@ -18157,7 +18154,7 @@
     </row>
     <row r="164" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="411" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B164" s="411"/>
       <c r="C164" s="411"/>
@@ -18190,7 +18187,7 @@
     </row>
     <row r="165" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="412" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B165" s="412"/>
       <c r="C165" s="412"/>
@@ -18223,7 +18220,7 @@
     </row>
     <row r="166" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B166" s="413"/>
       <c r="C166" s="413"/>
@@ -18256,10 +18253,10 @@
     </row>
     <row r="167" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="B167" s="63" t="s">
         <v>279</v>
-      </c>
-      <c r="B167" s="63" t="s">
-        <v>280</v>
       </c>
       <c r="C167" s="36">
         <v>4301135317</v>
@@ -18284,20 +18281,20 @@
         <v>234</v>
       </c>
       <c r="K167" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L167" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M167" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N167" s="38"/>
       <c r="O167" s="37">
         <v>180</v>
       </c>
       <c r="P167" s="480" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q167" s="416"/>
       <c r="R167" s="416"/>
@@ -18330,17 +18327,17 @@
         <v>46</v>
       </c>
       <c r="AC167" s="205" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG167" s="81"/>
       <c r="AJ167" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK167" s="87">
         <v>18</v>
       </c>
       <c r="BB167" s="206" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM167" s="81">
         <f>IFERROR(X167*I167,"0")</f>
@@ -18446,7 +18443,7 @@
     </row>
     <row r="170" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="412" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B170" s="412"/>
       <c r="C170" s="412"/>
@@ -18479,7 +18476,7 @@
     </row>
     <row r="171" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B171" s="413"/>
       <c r="C171" s="413"/>
@@ -18512,10 +18509,10 @@
     </row>
     <row r="172" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="B172" s="63" t="s">
         <v>283</v>
-      </c>
-      <c r="B172" s="63" t="s">
-        <v>284</v>
       </c>
       <c r="C172" s="36">
         <v>4301071062</v>
@@ -18540,20 +18537,20 @@
         <v>144</v>
       </c>
       <c r="K172" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L172" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L172" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M172" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N172" s="38"/>
       <c r="O172" s="37">
         <v>180</v>
       </c>
       <c r="P172" s="481" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q172" s="416"/>
       <c r="R172" s="416"/>
@@ -18586,11 +18583,11 @@
         <v>46</v>
       </c>
       <c r="AC172" s="207" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG172" s="81"/>
       <c r="AJ172" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK172" s="87">
         <v>1</v>
@@ -18617,10 +18614,10 @@
     </row>
     <row r="173" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B173" s="63" t="s">
         <v>287</v>
-      </c>
-      <c r="B173" s="63" t="s">
-        <v>288</v>
       </c>
       <c r="C173" s="36">
         <v>4301071056</v>
@@ -18645,20 +18642,20 @@
         <v>144</v>
       </c>
       <c r="K173" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L173" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L173" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M173" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N173" s="38"/>
       <c r="O173" s="37">
         <v>180</v>
       </c>
       <c r="P173" s="482" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q173" s="416"/>
       <c r="R173" s="416"/>
@@ -18691,11 +18688,11 @@
         <v>46</v>
       </c>
       <c r="AC173" s="209" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG173" s="81"/>
       <c r="AJ173" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK173" s="87">
         <v>1</v>
@@ -18722,10 +18719,10 @@
     </row>
     <row r="174" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="B174" s="63" t="s">
         <v>291</v>
-      </c>
-      <c r="B174" s="63" t="s">
-        <v>292</v>
       </c>
       <c r="C174" s="36">
         <v>4301071050</v>
@@ -18750,13 +18747,13 @@
         <v>144</v>
       </c>
       <c r="K174" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L174" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M174" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N174" s="38"/>
       <c r="O174" s="37">
@@ -18797,11 +18794,11 @@
         <v>46</v>
       </c>
       <c r="AC174" s="211" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG174" s="81"/>
       <c r="AJ174" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK174" s="87">
         <v>12</v>
@@ -18828,10 +18825,10 @@
     </row>
     <row r="175" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="B175" s="63" t="s">
         <v>294</v>
-      </c>
-      <c r="B175" s="63" t="s">
-        <v>295</v>
       </c>
       <c r="C175" s="36">
         <v>4301071061</v>
@@ -18856,13 +18853,13 @@
         <v>84</v>
       </c>
       <c r="K175" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L175" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L175" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M175" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N175" s="38"/>
       <c r="O175" s="37">
@@ -18903,11 +18900,11 @@
         <v>46</v>
       </c>
       <c r="AC175" s="213" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG175" s="81"/>
       <c r="AJ175" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK175" s="87">
         <v>1</v>
@@ -19019,7 +19016,7 @@
     </row>
     <row r="178" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="413" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B178" s="413"/>
       <c r="C178" s="413"/>
@@ -19052,10 +19049,10 @@
     </row>
     <row r="179" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="B179" s="63" t="s">
         <v>298</v>
-      </c>
-      <c r="B179" s="63" t="s">
-        <v>299</v>
       </c>
       <c r="C179" s="36">
         <v>4301080153</v>
@@ -19080,13 +19077,13 @@
         <v>144</v>
       </c>
       <c r="K179" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L179" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L179" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M179" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N179" s="38"/>
       <c r="O179" s="37">
@@ -19127,11 +19124,11 @@
         <v>46</v>
       </c>
       <c r="AC179" s="215" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG179" s="81"/>
       <c r="AJ179" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK179" s="87">
         <v>1</v>
@@ -19158,10 +19155,10 @@
     </row>
     <row r="180" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="B180" s="63" t="s">
         <v>301</v>
-      </c>
-      <c r="B180" s="63" t="s">
-        <v>302</v>
       </c>
       <c r="C180" s="36">
         <v>4301080154</v>
@@ -19186,13 +19183,13 @@
         <v>144</v>
       </c>
       <c r="K180" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L180" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L180" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M180" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N180" s="38"/>
       <c r="O180" s="37">
@@ -19233,11 +19230,11 @@
         <v>46</v>
       </c>
       <c r="AC180" s="217" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG180" s="81"/>
       <c r="AJ180" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK180" s="87">
         <v>1</v>
@@ -19349,7 +19346,7 @@
     </row>
     <row r="183" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="411" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B183" s="411"/>
       <c r="C183" s="411"/>
@@ -19382,7 +19379,7 @@
     </row>
     <row r="184" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="412" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B184" s="412"/>
       <c r="C184" s="412"/>
@@ -19415,7 +19412,7 @@
     </row>
     <row r="185" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="413" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B185" s="413"/>
       <c r="C185" s="413"/>
@@ -19448,10 +19445,10 @@
     </row>
     <row r="186" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="B186" s="63" t="s">
         <v>305</v>
-      </c>
-      <c r="B186" s="63" t="s">
-        <v>306</v>
       </c>
       <c r="C186" s="36">
         <v>4301132097</v>
@@ -19476,13 +19473,13 @@
         <v>70</v>
       </c>
       <c r="K186" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L186" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M186" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N186" s="38"/>
       <c r="O186" s="37">
@@ -19523,17 +19520,17 @@
         <v>46</v>
       </c>
       <c r="AC186" s="219" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG186" s="81"/>
       <c r="AJ186" s="87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK186" s="87">
         <v>70</v>
       </c>
       <c r="BB186" s="220" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM186" s="81">
         <f>IFERROR(X186*I186,"0")</f>
@@ -19554,10 +19551,10 @@
     </row>
     <row r="187" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B187" s="63" t="s">
         <v>308</v>
-      </c>
-      <c r="B187" s="63" t="s">
-        <v>309</v>
       </c>
       <c r="C187" s="36">
         <v>4301132100</v>
@@ -19582,13 +19579,13 @@
         <v>70</v>
       </c>
       <c r="K187" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L187" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M187" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N187" s="38"/>
       <c r="O187" s="37">
@@ -19629,17 +19626,17 @@
         <v>46</v>
       </c>
       <c r="AC187" s="221" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG187" s="81"/>
       <c r="AJ187" s="87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK187" s="87">
         <v>70</v>
       </c>
       <c r="BB187" s="222" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM187" s="81">
         <f>IFERROR(X187*I187,"0")</f>
@@ -19660,10 +19657,10 @@
     </row>
     <row r="188" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="B188" s="63" t="s">
         <v>311</v>
-      </c>
-      <c r="B188" s="63" t="s">
-        <v>312</v>
       </c>
       <c r="C188" s="36">
         <v>4301132079</v>
@@ -19688,13 +19685,13 @@
         <v>70</v>
       </c>
       <c r="K188" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L188" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M188" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N188" s="38"/>
       <c r="O188" s="37">
@@ -19735,17 +19732,17 @@
         <v>46</v>
       </c>
       <c r="AC188" s="223" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG188" s="81"/>
       <c r="AJ188" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK188" s="87">
         <v>14</v>
       </c>
       <c r="BB188" s="224" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM188" s="81">
         <f>IFERROR(X188*I188,"0")</f>
@@ -19851,7 +19848,7 @@
     </row>
     <row r="191" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="413" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B191" s="413"/>
       <c r="C191" s="413"/>
@@ -19884,10 +19881,10 @@
     </row>
     <row r="192" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="B192" s="63" t="s">
         <v>315</v>
-      </c>
-      <c r="B192" s="63" t="s">
-        <v>316</v>
       </c>
       <c r="C192" s="36">
         <v>4301051855</v>
@@ -19912,20 +19909,20 @@
         <v>56</v>
       </c>
       <c r="K192" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L192" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M192" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N192" s="38"/>
       <c r="O192" s="37">
         <v>365</v>
       </c>
       <c r="P192" s="490" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q192" s="416"/>
       <c r="R192" s="416"/>
@@ -19958,17 +19955,17 @@
         <v>46</v>
       </c>
       <c r="AC192" s="225" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG192" s="81"/>
       <c r="AJ192" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK192" s="87">
         <v>1</v>
       </c>
       <c r="BB192" s="226" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BM192" s="81">
         <f>IFERROR(X192*I192,"0")</f>
@@ -20074,7 +20071,7 @@
     </row>
     <row r="195" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="412" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B195" s="412"/>
       <c r="C195" s="412"/>
@@ -20107,7 +20104,7 @@
     </row>
     <row r="196" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="413" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B196" s="413"/>
       <c r="C196" s="413"/>
@@ -20140,10 +20137,10 @@
     </row>
     <row r="197" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="63" t="s">
+        <v>322</v>
+      </c>
+      <c r="B197" s="63" t="s">
         <v>323</v>
-      </c>
-      <c r="B197" s="63" t="s">
-        <v>324</v>
       </c>
       <c r="C197" s="36">
         <v>4301133002</v>
@@ -20168,13 +20165,13 @@
         <v>72</v>
       </c>
       <c r="K197" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L197" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M197" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N197" s="38"/>
       <c r="O197" s="37">
@@ -20215,17 +20212,17 @@
         <v>46</v>
       </c>
       <c r="AC197" s="227" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG197" s="81"/>
       <c r="AJ197" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK197" s="87">
         <v>1</v>
       </c>
       <c r="BB197" s="228" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM197" s="81">
         <f>IFERROR(X197*I197,"0")</f>
@@ -20331,7 +20328,7 @@
     </row>
     <row r="200" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="411" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B200" s="411"/>
       <c r="C200" s="411"/>
@@ -20364,7 +20361,7 @@
     </row>
     <row r="201" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="412" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B201" s="412"/>
       <c r="C201" s="412"/>
@@ -20397,7 +20394,7 @@
     </row>
     <row r="202" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B202" s="413"/>
       <c r="C202" s="413"/>
@@ -20430,10 +20427,10 @@
     </row>
     <row r="203" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="B203" s="63" t="s">
         <v>328</v>
-      </c>
-      <c r="B203" s="63" t="s">
-        <v>329</v>
       </c>
       <c r="C203" s="36">
         <v>4301135707</v>
@@ -20458,13 +20455,13 @@
         <v>70</v>
       </c>
       <c r="K203" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L203" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M203" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N203" s="38"/>
       <c r="O203" s="37">
@@ -20505,17 +20502,17 @@
         <v>46</v>
       </c>
       <c r="AC203" s="229" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG203" s="81"/>
       <c r="AJ203" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK203" s="87">
         <v>1</v>
       </c>
       <c r="BB203" s="230" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM203" s="81">
         <f>IFERROR(X203*I203,"0")</f>
@@ -20536,10 +20533,10 @@
     </row>
     <row r="204" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="B204" s="63" t="s">
         <v>331</v>
-      </c>
-      <c r="B204" s="63" t="s">
-        <v>332</v>
       </c>
       <c r="C204" s="36">
         <v>4301135719</v>
@@ -20564,13 +20561,13 @@
         <v>70</v>
       </c>
       <c r="K204" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L204" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M204" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N204" s="38"/>
       <c r="O204" s="37">
@@ -20611,17 +20608,17 @@
         <v>46</v>
       </c>
       <c r="AC204" s="231" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG204" s="81"/>
       <c r="AJ204" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK204" s="87">
         <v>1</v>
       </c>
       <c r="BB204" s="232" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM204" s="81">
         <f>IFERROR(X204*I204,"0")</f>
@@ -20642,10 +20639,10 @@
     </row>
     <row r="205" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="B205" s="63" t="s">
         <v>334</v>
-      </c>
-      <c r="B205" s="63" t="s">
-        <v>335</v>
       </c>
       <c r="C205" s="36">
         <v>4301135697</v>
@@ -20670,13 +20667,13 @@
         <v>70</v>
       </c>
       <c r="K205" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L205" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M205" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N205" s="38"/>
       <c r="O205" s="37">
@@ -20717,17 +20714,17 @@
         <v>46</v>
       </c>
       <c r="AC205" s="233" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG205" s="81"/>
       <c r="AJ205" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK205" s="87">
         <v>1</v>
       </c>
       <c r="BB205" s="234" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM205" s="81">
         <f>IFERROR(X205*I205,"0")</f>
@@ -20748,10 +20745,10 @@
     </row>
     <row r="206" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="B206" s="63" t="s">
         <v>336</v>
-      </c>
-      <c r="B206" s="63" t="s">
-        <v>337</v>
       </c>
       <c r="C206" s="36">
         <v>4301135681</v>
@@ -20776,20 +20773,20 @@
         <v>70</v>
       </c>
       <c r="K206" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L206" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M206" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N206" s="38"/>
       <c r="O206" s="37">
         <v>180</v>
       </c>
       <c r="P206" s="495" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q206" s="416"/>
       <c r="R206" s="416"/>
@@ -20822,17 +20819,17 @@
         <v>46</v>
       </c>
       <c r="AC206" s="235" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG206" s="81"/>
       <c r="AJ206" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK206" s="87">
         <v>1</v>
       </c>
       <c r="BB206" s="236" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM206" s="81">
         <f>IFERROR(X206*I206,"0")</f>
@@ -20938,7 +20935,7 @@
     </row>
     <row r="209" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="412" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B209" s="412"/>
       <c r="C209" s="412"/>
@@ -20971,7 +20968,7 @@
     </row>
     <row r="210" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B210" s="413"/>
       <c r="C210" s="413"/>
@@ -21004,10 +21001,10 @@
     </row>
     <row r="211" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="B211" s="63" t="s">
         <v>341</v>
-      </c>
-      <c r="B211" s="63" t="s">
-        <v>342</v>
       </c>
       <c r="C211" s="36">
         <v>4301070948</v>
@@ -21032,13 +21029,13 @@
         <v>84</v>
       </c>
       <c r="K211" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L211" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M211" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N211" s="38"/>
       <c r="O211" s="37">
@@ -21079,11 +21076,11 @@
         <v>46</v>
       </c>
       <c r="AC211" s="237" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG211" s="81"/>
       <c r="AJ211" s="87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK211" s="87">
         <v>84</v>
@@ -21110,10 +21107,10 @@
     </row>
     <row r="212" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="B212" s="63" t="s">
         <v>344</v>
-      </c>
-      <c r="B212" s="63" t="s">
-        <v>345</v>
       </c>
       <c r="C212" s="36">
         <v>4301070990</v>
@@ -21138,13 +21135,13 @@
         <v>84</v>
       </c>
       <c r="K212" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L212" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L212" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M212" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N212" s="38"/>
       <c r="O212" s="37">
@@ -21185,11 +21182,11 @@
         <v>46</v>
       </c>
       <c r="AC212" s="239" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG212" s="81"/>
       <c r="AJ212" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK212" s="87">
         <v>1</v>
@@ -21216,10 +21213,10 @@
     </row>
     <row r="213" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="63" t="s">
+        <v>346</v>
+      </c>
+      <c r="B213" s="63" t="s">
         <v>347</v>
-      </c>
-      <c r="B213" s="63" t="s">
-        <v>348</v>
       </c>
       <c r="C213" s="36">
         <v>4301070966</v>
@@ -21244,13 +21241,13 @@
         <v>84</v>
       </c>
       <c r="K213" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L213" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M213" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N213" s="38"/>
       <c r="O213" s="37">
@@ -21291,11 +21288,11 @@
         <v>46</v>
       </c>
       <c r="AC213" s="241" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG213" s="81"/>
       <c r="AJ213" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK213" s="87">
         <v>12</v>
@@ -21407,7 +21404,7 @@
     </row>
     <row r="216" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="412" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B216" s="412"/>
       <c r="C216" s="412"/>
@@ -21440,7 +21437,7 @@
     </row>
     <row r="217" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B217" s="413"/>
       <c r="C217" s="413"/>
@@ -21473,10 +21470,10 @@
     </row>
     <row r="218" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="B218" s="63" t="s">
         <v>351</v>
-      </c>
-      <c r="B218" s="63" t="s">
-        <v>352</v>
       </c>
       <c r="C218" s="36">
         <v>4301070996</v>
@@ -21501,13 +21498,13 @@
         <v>84</v>
       </c>
       <c r="K218" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L218" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L218" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M218" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N218" s="38"/>
       <c r="O218" s="37">
@@ -21548,11 +21545,11 @@
         <v>46</v>
       </c>
       <c r="AC218" s="243" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG218" s="81"/>
       <c r="AJ218" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK218" s="87">
         <v>1</v>
@@ -21579,10 +21576,10 @@
     </row>
     <row r="219" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="B219" s="63" t="s">
         <v>354</v>
-      </c>
-      <c r="B219" s="63" t="s">
-        <v>355</v>
       </c>
       <c r="C219" s="36">
         <v>4301070997</v>
@@ -21607,13 +21604,13 @@
         <v>84</v>
       </c>
       <c r="K219" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L219" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M219" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N219" s="38"/>
       <c r="O219" s="37">
@@ -21654,11 +21651,11 @@
         <v>46</v>
       </c>
       <c r="AC219" s="245" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG219" s="81"/>
       <c r="AJ219" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK219" s="87">
         <v>12</v>
@@ -21685,10 +21682,10 @@
     </row>
     <row r="220" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="B220" s="63" t="s">
         <v>356</v>
-      </c>
-      <c r="B220" s="63" t="s">
-        <v>357</v>
       </c>
       <c r="C220" s="36">
         <v>4301070962</v>
@@ -21713,13 +21710,13 @@
         <v>84</v>
       </c>
       <c r="K220" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L220" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L220" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M220" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N220" s="38"/>
       <c r="O220" s="37">
@@ -21760,11 +21757,11 @@
         <v>46</v>
       </c>
       <c r="AC220" s="247" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG220" s="81"/>
       <c r="AJ220" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK220" s="87">
         <v>1</v>
@@ -21791,10 +21788,10 @@
     </row>
     <row r="221" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B221" s="63" t="s">
         <v>359</v>
-      </c>
-      <c r="B221" s="63" t="s">
-        <v>360</v>
       </c>
       <c r="C221" s="36">
         <v>4301070963</v>
@@ -21819,13 +21816,13 @@
         <v>84</v>
       </c>
       <c r="K221" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L221" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L221" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M221" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N221" s="38"/>
       <c r="O221" s="37">
@@ -21866,11 +21863,11 @@
         <v>46</v>
       </c>
       <c r="AC221" s="249" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG221" s="81"/>
       <c r="AJ221" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK221" s="87">
         <v>1</v>
@@ -21897,10 +21894,10 @@
     </row>
     <row r="222" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="B222" s="63" t="s">
         <v>361</v>
-      </c>
-      <c r="B222" s="63" t="s">
-        <v>362</v>
       </c>
       <c r="C222" s="36">
         <v>4301070959</v>
@@ -21925,13 +21922,13 @@
         <v>84</v>
       </c>
       <c r="K222" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L222" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L222" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M222" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N222" s="38"/>
       <c r="O222" s="37">
@@ -21972,11 +21969,11 @@
         <v>46</v>
       </c>
       <c r="AC222" s="251" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG222" s="81"/>
       <c r="AJ222" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK222" s="87">
         <v>1</v>
@@ -22003,10 +22000,10 @@
     </row>
     <row r="223" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="63" t="s">
+        <v>362</v>
+      </c>
+      <c r="B223" s="63" t="s">
         <v>363</v>
-      </c>
-      <c r="B223" s="63" t="s">
-        <v>364</v>
       </c>
       <c r="C223" s="36">
         <v>4301070960</v>
@@ -22031,13 +22028,13 @@
         <v>84</v>
       </c>
       <c r="K223" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L223" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M223" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N223" s="38"/>
       <c r="O223" s="37">
@@ -22078,11 +22075,11 @@
         <v>46</v>
       </c>
       <c r="AC223" s="253" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG223" s="81"/>
       <c r="AJ223" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK223" s="87">
         <v>12</v>
@@ -22194,7 +22191,7 @@
     </row>
     <row r="226" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="412" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B226" s="412"/>
       <c r="C226" s="412"/>
@@ -22227,7 +22224,7 @@
     </row>
     <row r="227" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B227" s="413"/>
       <c r="C227" s="413"/>
@@ -22260,10 +22257,10 @@
     </row>
     <row r="228" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="B228" s="63" t="s">
         <v>366</v>
-      </c>
-      <c r="B228" s="63" t="s">
-        <v>367</v>
       </c>
       <c r="C228" s="36">
         <v>4301070915</v>
@@ -22288,13 +22285,13 @@
         <v>84</v>
       </c>
       <c r="K228" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L228" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L228" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M228" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N228" s="38"/>
       <c r="O228" s="37">
@@ -22335,11 +22332,11 @@
         <v>46</v>
       </c>
       <c r="AC228" s="255" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG228" s="81"/>
       <c r="AJ228" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK228" s="87">
         <v>1</v>
@@ -22366,10 +22363,10 @@
     </row>
     <row r="229" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="B229" s="63" t="s">
         <v>369</v>
-      </c>
-      <c r="B229" s="63" t="s">
-        <v>370</v>
       </c>
       <c r="C229" s="36">
         <v>4301070921</v>
@@ -22394,13 +22391,13 @@
         <v>84</v>
       </c>
       <c r="K229" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L229" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L229" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M229" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N229" s="38"/>
       <c r="O229" s="37">
@@ -22441,11 +22438,11 @@
         <v>46</v>
       </c>
       <c r="AC229" s="257" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG229" s="81"/>
       <c r="AJ229" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK229" s="87">
         <v>1</v>
@@ -22472,10 +22469,10 @@
     </row>
     <row r="230" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="B230" s="63" t="s">
         <v>371</v>
-      </c>
-      <c r="B230" s="63" t="s">
-        <v>372</v>
       </c>
       <c r="C230" s="36">
         <v>4301070917</v>
@@ -22500,13 +22497,13 @@
         <v>84</v>
       </c>
       <c r="K230" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L230" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L230" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M230" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N230" s="38"/>
       <c r="O230" s="37">
@@ -22547,11 +22544,11 @@
         <v>46</v>
       </c>
       <c r="AC230" s="259" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG230" s="81"/>
       <c r="AJ230" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK230" s="87">
         <v>1</v>
@@ -22578,10 +22575,10 @@
     </row>
     <row r="231" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="B231" s="63" t="s">
         <v>374</v>
-      </c>
-      <c r="B231" s="63" t="s">
-        <v>375</v>
       </c>
       <c r="C231" s="36">
         <v>4301070920</v>
@@ -22606,13 +22603,13 @@
         <v>84</v>
       </c>
       <c r="K231" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L231" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M231" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N231" s="38"/>
       <c r="O231" s="37">
@@ -22653,11 +22650,11 @@
         <v>46</v>
       </c>
       <c r="AC231" s="261" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG231" s="81"/>
       <c r="AJ231" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK231" s="87">
         <v>12</v>
@@ -22769,7 +22766,7 @@
     </row>
     <row r="234" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="412" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B234" s="412"/>
       <c r="C234" s="412"/>
@@ -22802,7 +22799,7 @@
     </row>
     <row r="235" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B235" s="413"/>
       <c r="C235" s="413"/>
@@ -22835,10 +22832,10 @@
     </row>
     <row r="236" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="B236" s="63" t="s">
         <v>377</v>
-      </c>
-      <c r="B236" s="63" t="s">
-        <v>378</v>
       </c>
       <c r="C236" s="36">
         <v>4301070912</v>
@@ -22863,13 +22860,13 @@
         <v>144</v>
       </c>
       <c r="K236" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L236" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L236" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M236" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N236" s="38"/>
       <c r="O236" s="37">
@@ -22910,11 +22907,11 @@
         <v>46</v>
       </c>
       <c r="AC236" s="263" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG236" s="81"/>
       <c r="AJ236" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK236" s="87">
         <v>1</v>
@@ -23026,7 +23023,7 @@
     </row>
     <row r="239" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="412" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B239" s="412"/>
       <c r="C239" s="412"/>
@@ -23059,7 +23056,7 @@
     </row>
     <row r="240" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="413" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B240" s="413"/>
       <c r="C240" s="413"/>
@@ -23092,10 +23089,10 @@
     </row>
     <row r="241" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="B241" s="63" t="s">
         <v>381</v>
-      </c>
-      <c r="B241" s="63" t="s">
-        <v>382</v>
       </c>
       <c r="C241" s="36">
         <v>4301051320</v>
@@ -23120,13 +23117,13 @@
         <v>182</v>
       </c>
       <c r="K241" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L241" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M241" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N241" s="38"/>
       <c r="O241" s="37">
@@ -23167,17 +23164,17 @@
         <v>46</v>
       </c>
       <c r="AC241" s="265" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG241" s="81"/>
       <c r="AJ241" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK241" s="87">
         <v>1</v>
       </c>
       <c r="BB241" s="266" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BM241" s="81">
         <f>IFERROR(X241*I241,"0")</f>
@@ -23283,7 +23280,7 @@
     </row>
     <row r="244" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="412" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B244" s="412"/>
       <c r="C244" s="412"/>
@@ -23316,7 +23313,7 @@
     </row>
     <row r="245" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B245" s="413"/>
       <c r="C245" s="413"/>
@@ -23349,10 +23346,10 @@
     </row>
     <row r="246" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="B246" s="63" t="s">
         <v>385</v>
-      </c>
-      <c r="B246" s="63" t="s">
-        <v>386</v>
       </c>
       <c r="C246" s="36">
         <v>4301071063</v>
@@ -23377,13 +23374,13 @@
         <v>84</v>
       </c>
       <c r="K246" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L246" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L246" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M246" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N246" s="38"/>
       <c r="O246" s="37">
@@ -23424,11 +23421,11 @@
         <v>46</v>
       </c>
       <c r="AC246" s="267" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG246" s="81"/>
       <c r="AJ246" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK246" s="87">
         <v>1</v>
@@ -23455,10 +23452,10 @@
     </row>
     <row r="247" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="B247" s="63" t="s">
         <v>388</v>
-      </c>
-      <c r="B247" s="63" t="s">
-        <v>389</v>
       </c>
       <c r="C247" s="36">
         <v>4301071000</v>
@@ -23483,13 +23480,13 @@
         <v>84</v>
       </c>
       <c r="K247" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L247" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M247" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N247" s="38"/>
       <c r="O247" s="37">
@@ -23530,11 +23527,11 @@
         <v>46</v>
       </c>
       <c r="AC247" s="269" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG247" s="81"/>
       <c r="AJ247" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK247" s="87">
         <v>12</v>
@@ -23646,7 +23643,7 @@
     </row>
     <row r="250" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="411" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B250" s="411"/>
       <c r="C250" s="411"/>
@@ -23679,7 +23676,7 @@
     </row>
     <row r="251" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="412" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B251" s="412"/>
       <c r="C251" s="412"/>
@@ -23712,7 +23709,7 @@
     </row>
     <row r="252" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B252" s="413"/>
       <c r="C252" s="413"/>
@@ -23745,10 +23742,10 @@
     </row>
     <row r="253" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="B253" s="63" t="s">
         <v>392</v>
-      </c>
-      <c r="B253" s="63" t="s">
-        <v>393</v>
       </c>
       <c r="C253" s="36">
         <v>4301071036</v>
@@ -23773,13 +23770,13 @@
         <v>84</v>
       </c>
       <c r="K253" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L253" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L253" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M253" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N253" s="38"/>
       <c r="O253" s="37">
@@ -23820,11 +23817,11 @@
         <v>46</v>
       </c>
       <c r="AC253" s="271" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG253" s="81"/>
       <c r="AJ253" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK253" s="87">
         <v>1</v>
@@ -23936,7 +23933,7 @@
     </row>
     <row r="256" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="411" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B256" s="411"/>
       <c r="C256" s="411"/>
@@ -23969,7 +23966,7 @@
     </row>
     <row r="257" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="412" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B257" s="412"/>
       <c r="C257" s="412"/>
@@ -24002,7 +23999,7 @@
     </row>
     <row r="258" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B258" s="413"/>
       <c r="C258" s="413"/>
@@ -24035,10 +24032,10 @@
     </row>
     <row r="259" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="B259" s="63" t="s">
         <v>397</v>
-      </c>
-      <c r="B259" s="63" t="s">
-        <v>398</v>
       </c>
       <c r="C259" s="36">
         <v>4301071029</v>
@@ -24063,13 +24060,13 @@
         <v>84</v>
       </c>
       <c r="K259" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L259" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M259" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N259" s="38"/>
       <c r="O259" s="37">
@@ -24110,11 +24107,11 @@
         <v>46</v>
       </c>
       <c r="AC259" s="273" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG259" s="81"/>
       <c r="AJ259" s="87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK259" s="87">
         <v>84</v>
@@ -24141,10 +24138,10 @@
     </row>
     <row r="260" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="B260" s="63" t="s">
         <v>399</v>
-      </c>
-      <c r="B260" s="63" t="s">
-        <v>400</v>
       </c>
       <c r="C260" s="36">
         <v>4301070991</v>
@@ -24169,13 +24166,13 @@
         <v>84</v>
       </c>
       <c r="K260" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L260" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M260" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N260" s="38"/>
       <c r="O260" s="37">
@@ -24216,11 +24213,11 @@
         <v>46</v>
       </c>
       <c r="AC260" s="275" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG260" s="81"/>
       <c r="AJ260" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK260" s="87">
         <v>12</v>
@@ -24332,7 +24329,7 @@
     </row>
     <row r="263" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="412" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B263" s="412"/>
       <c r="C263" s="412"/>
@@ -24365,7 +24362,7 @@
     </row>
     <row r="264" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B264" s="413"/>
       <c r="C264" s="413"/>
@@ -24398,10 +24395,10 @@
     </row>
     <row r="265" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="63" t="s">
+        <v>402</v>
+      </c>
+      <c r="B265" s="63" t="s">
         <v>403</v>
-      </c>
-      <c r="B265" s="63" t="s">
-        <v>404</v>
       </c>
       <c r="C265" s="36">
         <v>4301070870</v>
@@ -24426,13 +24423,13 @@
         <v>84</v>
       </c>
       <c r="K265" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L265" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L265" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M265" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N265" s="38"/>
       <c r="O265" s="37">
@@ -24473,11 +24470,11 @@
         <v>46</v>
       </c>
       <c r="AC265" s="277" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG265" s="81"/>
       <c r="AJ265" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK265" s="87">
         <v>1</v>
@@ -24589,7 +24586,7 @@
     </row>
     <row r="268" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="411" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B268" s="411"/>
       <c r="C268" s="411"/>
@@ -24622,7 +24619,7 @@
     </row>
     <row r="269" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="412" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B269" s="412"/>
       <c r="C269" s="412"/>
@@ -24655,7 +24652,7 @@
     </row>
     <row r="270" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="413" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B270" s="413"/>
       <c r="C270" s="413"/>
@@ -24688,10 +24685,10 @@
     </row>
     <row r="271" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="B271" s="63" t="s">
         <v>407</v>
-      </c>
-      <c r="B271" s="63" t="s">
-        <v>408</v>
       </c>
       <c r="C271" s="36">
         <v>4301133004</v>
@@ -24716,20 +24713,20 @@
         <v>70</v>
       </c>
       <c r="K271" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L271" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M271" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N271" s="38"/>
       <c r="O271" s="37">
         <v>180</v>
       </c>
       <c r="P271" s="517" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q271" s="416"/>
       <c r="R271" s="416"/>
@@ -24762,17 +24759,17 @@
         <v>46</v>
       </c>
       <c r="AC271" s="279" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG271" s="81"/>
       <c r="AJ271" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK271" s="87">
         <v>1</v>
       </c>
       <c r="BB271" s="280" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM271" s="81">
         <f>IFERROR(X271*I271,"0")</f>
@@ -24878,7 +24875,7 @@
     </row>
     <row r="274" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B274" s="413"/>
       <c r="C274" s="413"/>
@@ -24911,10 +24908,10 @@
     </row>
     <row r="275" spans="1:68" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="B275" s="63" t="s">
         <v>411</v>
-      </c>
-      <c r="B275" s="63" t="s">
-        <v>412</v>
       </c>
       <c r="C275" s="36">
         <v>4301135400</v>
@@ -24939,13 +24936,13 @@
         <v>70</v>
       </c>
       <c r="K275" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L275" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M275" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N275" s="38"/>
       <c r="O275" s="37">
@@ -24986,17 +24983,17 @@
         <v>46</v>
       </c>
       <c r="AC275" s="281" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG275" s="81"/>
       <c r="AJ275" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK275" s="87">
         <v>1</v>
       </c>
       <c r="BB275" s="282" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM275" s="81">
         <f>IFERROR(X275*I275,"0")</f>
@@ -25102,7 +25099,7 @@
     </row>
     <row r="278" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="411" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B278" s="411"/>
       <c r="C278" s="411"/>
@@ -25135,7 +25132,7 @@
     </row>
     <row r="279" spans="1:68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="412" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="412"/>
       <c r="C279" s="412"/>
@@ -25168,7 +25165,7 @@
     </row>
     <row r="280" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="413" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B280" s="413"/>
       <c r="C280" s="413"/>
@@ -25201,10 +25198,10 @@
     </row>
     <row r="281" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="B281" s="63" t="s">
         <v>413</v>
-      </c>
-      <c r="B281" s="63" t="s">
-        <v>414</v>
       </c>
       <c r="C281" s="36">
         <v>4301071014</v>
@@ -25229,20 +25226,20 @@
         <v>84</v>
       </c>
       <c r="K281" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L281" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M281" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N281" s="38"/>
       <c r="O281" s="37">
         <v>180</v>
       </c>
       <c r="P281" s="519" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q281" s="416"/>
       <c r="R281" s="416"/>
@@ -25275,11 +25272,11 @@
         <v>46</v>
       </c>
       <c r="AC281" s="283" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG281" s="81"/>
       <c r="AJ281" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK281" s="87">
         <v>12</v>
@@ -25306,10 +25303,10 @@
     </row>
     <row r="282" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="B282" s="63" t="s">
         <v>417</v>
-      </c>
-      <c r="B282" s="63" t="s">
-        <v>418</v>
       </c>
       <c r="C282" s="36">
         <v>4301071021</v>
@@ -25334,20 +25331,20 @@
         <v>84</v>
       </c>
       <c r="K282" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L282" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M282" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N282" s="38"/>
       <c r="O282" s="37">
         <v>180</v>
       </c>
       <c r="P282" s="520" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q282" s="416"/>
       <c r="R282" s="416"/>
@@ -25380,11 +25377,11 @@
         <v>46</v>
       </c>
       <c r="AC282" s="285" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG282" s="81"/>
       <c r="AJ282" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK282" s="87">
         <v>12</v>
@@ -25411,10 +25408,10 @@
     </row>
     <row r="283" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="B283" s="63" t="s">
         <v>420</v>
-      </c>
-      <c r="B283" s="63" t="s">
-        <v>421</v>
       </c>
       <c r="C283" s="36">
         <v>4301070993</v>
@@ -25439,20 +25436,20 @@
         <v>84</v>
       </c>
       <c r="K283" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L283" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M283" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N283" s="38"/>
       <c r="O283" s="37">
         <v>180</v>
       </c>
       <c r="P283" s="521" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q283" s="416"/>
       <c r="R283" s="416"/>
@@ -25485,11 +25482,11 @@
         <v>46</v>
       </c>
       <c r="AC283" s="287" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG283" s="81"/>
       <c r="AJ283" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK283" s="87">
         <v>12</v>
@@ -25601,7 +25598,7 @@
     </row>
     <row r="286" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="413" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B286" s="413"/>
       <c r="C286" s="413"/>
@@ -25634,10 +25631,10 @@
     </row>
     <row r="287" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="B287" s="63" t="s">
         <v>424</v>
-      </c>
-      <c r="B287" s="63" t="s">
-        <v>425</v>
       </c>
       <c r="C287" s="36">
         <v>4301131019</v>
@@ -25662,20 +25659,20 @@
         <v>234</v>
       </c>
       <c r="K287" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L287" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M287" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N287" s="38"/>
       <c r="O287" s="37">
         <v>180</v>
       </c>
       <c r="P287" s="522" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q287" s="416"/>
       <c r="R287" s="416"/>
@@ -25708,17 +25705,17 @@
         <v>46</v>
       </c>
       <c r="AC287" s="289" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG287" s="81"/>
       <c r="AJ287" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK287" s="87">
         <v>18</v>
       </c>
       <c r="BB287" s="290" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM287" s="81">
         <f>IFERROR(X287*I287,"0")</f>
@@ -25824,7 +25821,7 @@
     </row>
     <row r="290" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="413" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B290" s="413"/>
       <c r="C290" s="413"/>
@@ -25857,10 +25854,10 @@
     </row>
     <row r="291" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="B291" s="63" t="s">
         <v>428</v>
-      </c>
-      <c r="B291" s="63" t="s">
-        <v>429</v>
       </c>
       <c r="C291" s="36">
         <v>4301132080</v>
@@ -25885,20 +25882,20 @@
         <v>84</v>
       </c>
       <c r="K291" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L291" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M291" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N291" s="38"/>
       <c r="O291" s="37">
         <v>180</v>
       </c>
       <c r="P291" s="523" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q291" s="416"/>
       <c r="R291" s="416"/>
@@ -25931,17 +25928,17 @@
         <v>46</v>
       </c>
       <c r="AC291" s="291" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG291" s="81"/>
       <c r="AJ291" s="87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK291" s="87">
         <v>84</v>
       </c>
       <c r="BB291" s="292" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM291" s="81">
         <f>IFERROR(X291*I291,"0")</f>
@@ -25962,10 +25959,10 @@
     </row>
     <row r="292" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="B292" s="63" t="s">
         <v>432</v>
-      </c>
-      <c r="B292" s="63" t="s">
-        <v>433</v>
       </c>
       <c r="C292" s="36">
         <v>4301132104</v>
@@ -25990,20 +25987,20 @@
         <v>234</v>
       </c>
       <c r="K292" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L292" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M292" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N292" s="38"/>
       <c r="O292" s="37">
         <v>180</v>
       </c>
       <c r="P292" s="524" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q292" s="416"/>
       <c r="R292" s="416"/>
@@ -26036,17 +26033,17 @@
         <v>46</v>
       </c>
       <c r="AC292" s="293" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG292" s="81"/>
       <c r="AJ292" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK292" s="87">
         <v>18</v>
       </c>
       <c r="BB292" s="294" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM292" s="81">
         <f>IFERROR(X292*I292,"0")</f>
@@ -26152,7 +26149,7 @@
     </row>
     <row r="295" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="413" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B295" s="413"/>
       <c r="C295" s="413"/>
@@ -26185,10 +26182,10 @@
     </row>
     <row r="296" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="B296" s="63" t="s">
         <v>435</v>
-      </c>
-      <c r="B296" s="63" t="s">
-        <v>436</v>
       </c>
       <c r="C296" s="36">
         <v>4301136028</v>
@@ -26213,20 +26210,20 @@
         <v>126</v>
       </c>
       <c r="K296" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L296" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M296" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N296" s="38"/>
       <c r="O296" s="37">
         <v>180</v>
       </c>
       <c r="P296" s="525" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q296" s="416"/>
       <c r="R296" s="416"/>
@@ -26259,17 +26256,17 @@
         <v>46</v>
       </c>
       <c r="AC296" s="295" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG296" s="81"/>
       <c r="AJ296" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK296" s="87">
         <v>14</v>
       </c>
       <c r="BB296" s="296" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM296" s="81">
         <f>IFERROR(X296*I296,"0")</f>
@@ -26290,10 +26287,10 @@
     </row>
     <row r="297" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="B297" s="63" t="s">
         <v>439</v>
-      </c>
-      <c r="B297" s="63" t="s">
-        <v>440</v>
       </c>
       <c r="C297" s="36">
         <v>4301136026</v>
@@ -26318,20 +26315,20 @@
         <v>84</v>
       </c>
       <c r="K297" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L297" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M297" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N297" s="38"/>
       <c r="O297" s="37">
         <v>180</v>
       </c>
       <c r="P297" s="526" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q297" s="416"/>
       <c r="R297" s="416"/>
@@ -26364,17 +26361,17 @@
         <v>46</v>
       </c>
       <c r="AC297" s="297" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG297" s="81"/>
       <c r="AJ297" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK297" s="87">
         <v>12</v>
       </c>
       <c r="BB297" s="298" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM297" s="81">
         <f>IFERROR(X297*I297,"0")</f>
@@ -26395,10 +26392,10 @@
     </row>
     <row r="298" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="B298" s="63" t="s">
         <v>442</v>
-      </c>
-      <c r="B298" s="63" t="s">
-        <v>443</v>
       </c>
       <c r="C298" s="36">
         <v>4301136029</v>
@@ -26423,13 +26420,13 @@
         <v>126</v>
       </c>
       <c r="K298" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L298" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M298" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N298" s="38"/>
       <c r="O298" s="37">
@@ -26470,17 +26467,17 @@
         <v>46</v>
       </c>
       <c r="AC298" s="299" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG298" s="81"/>
       <c r="AJ298" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK298" s="87">
         <v>14</v>
       </c>
       <c r="BB298" s="300" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM298" s="81">
         <f>IFERROR(X298*I298,"0")</f>
@@ -26586,7 +26583,7 @@
     </row>
     <row r="301" spans="1:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="413" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B301" s="413"/>
       <c r="C301" s="413"/>
@@ -26619,10 +26616,10 @@
     </row>
     <row r="302" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="B302" s="63" t="s">
         <v>444</v>
-      </c>
-      <c r="B302" s="63" t="s">
-        <v>445</v>
       </c>
       <c r="C302" s="36">
         <v>4301135504</v>
@@ -26647,20 +26644,20 @@
         <v>126</v>
       </c>
       <c r="K302" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L302" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M302" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N302" s="38"/>
       <c r="O302" s="37">
         <v>180</v>
       </c>
       <c r="P302" s="528" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q302" s="416"/>
       <c r="R302" s="416"/>
@@ -26693,17 +26690,17 @@
         <v>46</v>
       </c>
       <c r="AC302" s="301" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG302" s="81"/>
       <c r="AJ302" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK302" s="87">
         <v>1</v>
       </c>
       <c r="BB302" s="302" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM302" s="81">
         <f t="shared" ref="BM302:BM322" si="25">IFERROR(X302*I302,"0")</f>
@@ -26724,10 +26721,10 @@
     </row>
     <row r="303" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="B303" s="63" t="s">
         <v>448</v>
-      </c>
-      <c r="B303" s="63" t="s">
-        <v>449</v>
       </c>
       <c r="C303" s="36">
         <v>4301135394</v>
@@ -26752,20 +26749,20 @@
         <v>126</v>
       </c>
       <c r="K303" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L303" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M303" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N303" s="38"/>
       <c r="O303" s="37">
         <v>180</v>
       </c>
       <c r="P303" s="529" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q303" s="416"/>
       <c r="R303" s="416"/>
@@ -26798,17 +26795,17 @@
         <v>46</v>
       </c>
       <c r="AC303" s="303" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG303" s="81"/>
       <c r="AJ303" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK303" s="87">
         <v>14</v>
       </c>
       <c r="BB303" s="304" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM303" s="81">
         <f t="shared" si="25"/>
@@ -26829,10 +26826,10 @@
     </row>
     <row r="304" spans="1:68" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="B304" s="63" t="s">
         <v>452</v>
-      </c>
-      <c r="B304" s="63" t="s">
-        <v>453</v>
       </c>
       <c r="C304" s="36">
         <v>4301135552</v>
@@ -26857,20 +26854,20 @@
         <v>126</v>
       </c>
       <c r="K304" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L304" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M304" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N304" s="38"/>
       <c r="O304" s="37">
         <v>180</v>
       </c>
       <c r="P304" s="530" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q304" s="416"/>
       <c r="R304" s="416"/>
@@ -26903,17 +26900,17 @@
         <v>46</v>
       </c>
       <c r="AC304" s="305" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG304" s="81"/>
       <c r="AJ304" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK304" s="87">
         <v>1</v>
       </c>
       <c r="BB304" s="306" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM304" s="81">
         <f t="shared" si="25"/>
@@ -26934,10 +26931,10 @@
     </row>
     <row r="305" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="63" t="s">
+        <v>455</v>
+      </c>
+      <c r="B305" s="63" t="s">
         <v>456</v>
-      </c>
-      <c r="B305" s="63" t="s">
-        <v>457</v>
       </c>
       <c r="C305" s="36">
         <v>4301135374</v>
@@ -26962,20 +26959,20 @@
         <v>84</v>
       </c>
       <c r="K305" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L305" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M305" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N305" s="38"/>
       <c r="O305" s="37">
         <v>180</v>
       </c>
       <c r="P305" s="531" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Q305" s="416"/>
       <c r="R305" s="416"/>
@@ -27008,17 +27005,17 @@
         <v>46</v>
       </c>
       <c r="AC305" s="307" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG305" s="81"/>
       <c r="AJ305" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK305" s="87">
         <v>12</v>
       </c>
       <c r="BB305" s="308" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM305" s="81">
         <f t="shared" si="25"/>
@@ -27039,10 +27036,10 @@
     </row>
     <row r="306" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="B306" s="63" t="s">
         <v>459</v>
-      </c>
-      <c r="B306" s="63" t="s">
-        <v>460</v>
       </c>
       <c r="C306" s="36">
         <v>4301135320</v>
@@ -27067,20 +27064,20 @@
         <v>126</v>
       </c>
       <c r="K306" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L306" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M306" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N306" s="38"/>
       <c r="O306" s="37">
         <v>180</v>
       </c>
       <c r="P306" s="532" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q306" s="416"/>
       <c r="R306" s="416"/>
@@ -27113,17 +27110,17 @@
         <v>46</v>
       </c>
       <c r="AC306" s="309" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG306" s="81"/>
       <c r="AJ306" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK306" s="87">
         <v>1</v>
       </c>
       <c r="BB306" s="310" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM306" s="81">
         <f t="shared" si="25"/>
@@ -27144,10 +27141,10 @@
     </row>
     <row r="307" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="B307" s="63" t="s">
         <v>463</v>
-      </c>
-      <c r="B307" s="63" t="s">
-        <v>464</v>
       </c>
       <c r="C307" s="36">
         <v>4301135405</v>
@@ -27172,20 +27169,20 @@
         <v>126</v>
       </c>
       <c r="K307" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L307" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M307" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N307" s="38"/>
       <c r="O307" s="37">
         <v>180</v>
       </c>
       <c r="P307" s="533" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q307" s="416"/>
       <c r="R307" s="416"/>
@@ -27218,17 +27215,17 @@
         <v>46</v>
       </c>
       <c r="AC307" s="311" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG307" s="81"/>
       <c r="AJ307" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK307" s="87">
         <v>14</v>
       </c>
       <c r="BB307" s="312" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM307" s="81">
         <f t="shared" si="25"/>
@@ -27249,10 +27246,10 @@
     </row>
     <row r="308" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="63" t="s">
+        <v>465</v>
+      </c>
+      <c r="B308" s="63" t="s">
         <v>466</v>
-      </c>
-      <c r="B308" s="63" t="s">
-        <v>467</v>
       </c>
       <c r="C308" s="36">
         <v>4301135404</v>
@@ -27277,20 +27274,20 @@
         <v>126</v>
       </c>
       <c r="K308" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L308" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M308" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N308" s="38"/>
       <c r="O308" s="37">
         <v>180</v>
       </c>
       <c r="P308" s="534" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q308" s="416"/>
       <c r="R308" s="416"/>
@@ -27323,17 +27320,17 @@
         <v>46</v>
       </c>
       <c r="AC308" s="313" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG308" s="81"/>
       <c r="AJ308" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK308" s="87">
         <v>1</v>
       </c>
       <c r="BB308" s="314" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM308" s="81">
         <f t="shared" si="25"/>
@@ -27354,10 +27351,10 @@
     </row>
     <row r="309" spans="1:68" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="B309" s="63" t="s">
         <v>469</v>
-      </c>
-      <c r="B309" s="63" t="s">
-        <v>470</v>
       </c>
       <c r="C309" s="36">
         <v>4301135402</v>
@@ -27382,20 +27379,20 @@
         <v>126</v>
       </c>
       <c r="K309" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L309" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M309" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N309" s="38"/>
       <c r="O309" s="37">
         <v>180</v>
       </c>
       <c r="P309" s="535" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q309" s="416"/>
       <c r="R309" s="416"/>
@@ -27428,17 +27425,17 @@
         <v>46</v>
       </c>
       <c r="AC309" s="315" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG309" s="81"/>
       <c r="AJ309" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK309" s="87">
         <v>1</v>
       </c>
       <c r="BB309" s="316" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM309" s="81">
         <f t="shared" si="25"/>
@@ -27459,10 +27456,10 @@
     </row>
     <row r="310" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="63" t="s">
+        <v>471</v>
+      </c>
+      <c r="B310" s="63" t="s">
         <v>472</v>
-      </c>
-      <c r="B310" s="63" t="s">
-        <v>473</v>
       </c>
       <c r="C310" s="36">
         <v>4301135375</v>
@@ -27487,20 +27484,20 @@
         <v>126</v>
       </c>
       <c r="K310" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L310" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M310" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N310" s="38"/>
       <c r="O310" s="37">
         <v>180</v>
       </c>
       <c r="P310" s="536" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q310" s="416"/>
       <c r="R310" s="416"/>
@@ -27533,17 +27530,17 @@
         <v>46</v>
       </c>
       <c r="AC310" s="317" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG310" s="81"/>
       <c r="AJ310" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK310" s="87">
         <v>14</v>
       </c>
       <c r="BB310" s="318" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM310" s="81">
         <f t="shared" si="25"/>
@@ -27564,10 +27561,10 @@
     </row>
     <row r="311" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="63" t="s">
+        <v>474</v>
+      </c>
+      <c r="B311" s="63" t="s">
         <v>475</v>
-      </c>
-      <c r="B311" s="63" t="s">
-        <v>476</v>
       </c>
       <c r="C311" s="36">
         <v>4301135403</v>
@@ -27592,20 +27589,20 @@
         <v>126</v>
       </c>
       <c r="K311" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L311" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M311" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N311" s="38"/>
       <c r="O311" s="37">
         <v>180</v>
       </c>
       <c r="P311" s="537" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q311" s="416"/>
       <c r="R311" s="416"/>
@@ -27638,17 +27635,17 @@
         <v>46</v>
       </c>
       <c r="AC311" s="319" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG311" s="81"/>
       <c r="AJ311" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK311" s="87">
         <v>14</v>
       </c>
       <c r="BB311" s="320" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM311" s="81">
         <f t="shared" si="25"/>
@@ -27669,10 +27666,10 @@
     </row>
     <row r="312" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="B312" s="63" t="s">
         <v>478</v>
-      </c>
-      <c r="B312" s="63" t="s">
-        <v>479</v>
       </c>
       <c r="C312" s="36">
         <v>4301135304</v>
@@ -27697,20 +27694,20 @@
         <v>126</v>
       </c>
       <c r="K312" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L312" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M312" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N312" s="38"/>
       <c r="O312" s="37">
         <v>180</v>
       </c>
       <c r="P312" s="538" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q312" s="416"/>
       <c r="R312" s="416"/>
@@ -27743,17 +27740,17 @@
         <v>46</v>
       </c>
       <c r="AC312" s="321" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG312" s="81"/>
       <c r="AJ312" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK312" s="87">
         <v>14</v>
       </c>
       <c r="BB312" s="322" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM312" s="81">
         <f t="shared" si="25"/>
@@ -27774,10 +27771,10 @@
     </row>
     <row r="313" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="63" t="s">
+        <v>480</v>
+      </c>
+      <c r="B313" s="63" t="s">
         <v>481</v>
-      </c>
-      <c r="B313" s="63" t="s">
-        <v>482</v>
       </c>
       <c r="C313" s="36">
         <v>4301135310</v>
@@ -27802,20 +27799,20 @@
         <v>126</v>
       </c>
       <c r="K313" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L313" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M313" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N313" s="38"/>
       <c r="O313" s="37">
         <v>180</v>
       </c>
       <c r="P313" s="539" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q313" s="416"/>
       <c r="R313" s="416"/>
@@ -27848,17 +27845,17 @@
         <v>46</v>
       </c>
       <c r="AC313" s="323" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG313" s="81"/>
       <c r="AJ313" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK313" s="87">
         <v>14</v>
       </c>
       <c r="BB313" s="324" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM313" s="81">
         <f t="shared" si="25"/>
@@ -27879,10 +27876,10 @@
     </row>
     <row r="314" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="63" t="s">
+        <v>483</v>
+      </c>
+      <c r="B314" s="63" t="s">
         <v>484</v>
-      </c>
-      <c r="B314" s="63" t="s">
-        <v>485</v>
       </c>
       <c r="C314" s="36">
         <v>4301135306</v>
@@ -27907,20 +27904,20 @@
         <v>234</v>
       </c>
       <c r="K314" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L314" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M314" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N314" s="38"/>
       <c r="O314" s="37">
         <v>180</v>
       </c>
       <c r="P314" s="540" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q314" s="416"/>
       <c r="R314" s="416"/>
@@ -27953,17 +27950,17 @@
         <v>46</v>
       </c>
       <c r="AC314" s="325" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG314" s="81"/>
       <c r="AJ314" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK314" s="87">
         <v>18</v>
       </c>
       <c r="BB314" s="326" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM314" s="81">
         <f t="shared" si="25"/>
@@ -27984,10 +27981,10 @@
     </row>
     <row r="315" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="B315" s="63" t="s">
         <v>487</v>
-      </c>
-      <c r="B315" s="63" t="s">
-        <v>488</v>
       </c>
       <c r="C315" s="36">
         <v>4301135305</v>
@@ -28012,20 +28009,20 @@
         <v>234</v>
       </c>
       <c r="K315" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L315" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M315" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N315" s="38"/>
       <c r="O315" s="37">
         <v>180</v>
       </c>
       <c r="P315" s="541" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q315" s="416"/>
       <c r="R315" s="416"/>
@@ -28058,17 +28055,17 @@
         <v>46</v>
       </c>
       <c r="AC315" s="327" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG315" s="81"/>
       <c r="AJ315" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK315" s="87">
         <v>18</v>
       </c>
       <c r="BB315" s="328" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM315" s="81">
         <f t="shared" si="25"/>
@@ -28089,10 +28086,10 @@
     </row>
     <row r="316" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="B316" s="63" t="s">
         <v>490</v>
-      </c>
-      <c r="B316" s="63" t="s">
-        <v>491</v>
       </c>
       <c r="C316" s="36">
         <v>4301135309</v>
@@ -28117,20 +28114,20 @@
         <v>234</v>
       </c>
       <c r="K316" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L316" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M316" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N316" s="38"/>
       <c r="O316" s="37">
         <v>180</v>
       </c>
       <c r="P316" s="542" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q316" s="416"/>
       <c r="R316" s="416"/>
@@ -28163,17 +28160,17 @@
         <v>46</v>
       </c>
       <c r="AC316" s="329" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG316" s="81"/>
       <c r="AJ316" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK316" s="87">
         <v>18</v>
       </c>
       <c r="BB316" s="330" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM316" s="81">
         <f t="shared" si="25"/>
@@ -28194,10 +28191,10 @@
     </row>
     <row r="317" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="B317" s="63" t="s">
         <v>493</v>
-      </c>
-      <c r="B317" s="63" t="s">
-        <v>494</v>
       </c>
       <c r="C317" s="36">
         <v>4301135308</v>
@@ -28222,20 +28219,20 @@
         <v>234</v>
       </c>
       <c r="K317" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L317" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M317" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N317" s="38"/>
       <c r="O317" s="37">
         <v>180</v>
       </c>
       <c r="P317" s="543" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q317" s="416"/>
       <c r="R317" s="416"/>
@@ -28268,17 +28265,17 @@
         <v>46</v>
       </c>
       <c r="AC317" s="331" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG317" s="81"/>
       <c r="AJ317" s="87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK317" s="87">
         <v>18</v>
       </c>
       <c r="BB317" s="332" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM317" s="81">
         <f t="shared" si="25"/>
@@ -28299,10 +28296,10 @@
     </row>
     <row r="318" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="B318" s="63" t="s">
         <v>496</v>
-      </c>
-      <c r="B318" s="63" t="s">
-        <v>497</v>
       </c>
       <c r="C318" s="36">
         <v>4301135307</v>
@@ -28327,20 +28324,20 @@
         <v>234</v>
       </c>
       <c r="K318" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L318" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M318" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N318" s="38"/>
       <c r="O318" s="37">
         <v>180</v>
       </c>
       <c r="P318" s="544" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q318" s="416"/>
       <c r="R318" s="416"/>
@@ -28373,17 +28370,17 @@
         <v>46</v>
       </c>
       <c r="AC318" s="333" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG318" s="81"/>
       <c r="AJ318" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK318" s="87">
         <v>1</v>
       </c>
       <c r="BB318" s="334" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM318" s="81">
         <f t="shared" si="25"/>
@@ -28404,10 +28401,10 @@
     </row>
     <row r="319" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="63" t="s">
+        <v>499</v>
+      </c>
+      <c r="B319" s="63" t="s">
         <v>500</v>
-      </c>
-      <c r="B319" s="63" t="s">
-        <v>501</v>
       </c>
       <c r="C319" s="36">
         <v>4301135318</v>
@@ -28432,20 +28429,20 @@
         <v>84</v>
       </c>
       <c r="K319" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L319" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L319" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M319" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N319" s="38"/>
       <c r="O319" s="37">
         <v>180</v>
       </c>
       <c r="P319" s="545" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q319" s="416"/>
       <c r="R319" s="416"/>
@@ -28478,17 +28475,17 @@
         <v>46</v>
       </c>
       <c r="AC319" s="335" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG319" s="81"/>
       <c r="AJ319" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK319" s="87">
         <v>1</v>
       </c>
       <c r="BB319" s="336" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM319" s="81">
         <f t="shared" si="25"/>
@@ -28509,10 +28506,10 @@
     </row>
     <row r="320" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="63" t="s">
+        <v>503</v>
+      </c>
+      <c r="B320" s="63" t="s">
         <v>504</v>
-      </c>
-      <c r="B320" s="63" t="s">
-        <v>505</v>
       </c>
       <c r="C320" s="36">
         <v>4301135319</v>
@@ -28537,20 +28534,20 @@
         <v>84</v>
       </c>
       <c r="K320" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L320" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L320" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M320" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N320" s="38"/>
       <c r="O320" s="37">
         <v>180</v>
       </c>
       <c r="P320" s="546" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q320" s="416"/>
       <c r="R320" s="416"/>
@@ -28583,17 +28580,17 @@
         <v>46</v>
       </c>
       <c r="AC320" s="337" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG320" s="81"/>
       <c r="AJ320" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK320" s="87">
         <v>1</v>
       </c>
       <c r="BB320" s="338" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM320" s="81">
         <f t="shared" si="25"/>
@@ -28614,10 +28611,10 @@
     </row>
     <row r="321" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="63" t="s">
+        <v>507</v>
+      </c>
+      <c r="B321" s="63" t="s">
         <v>508</v>
-      </c>
-      <c r="B321" s="63" t="s">
-        <v>509</v>
       </c>
       <c r="C321" s="36">
         <v>4301135198</v>
@@ -28642,20 +28639,20 @@
         <v>84</v>
       </c>
       <c r="K321" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L321" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L321" s="37" t="s">
-        <v>88</v>
-      </c>
       <c r="M321" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N321" s="38"/>
       <c r="O321" s="37">
         <v>180</v>
       </c>
       <c r="P321" s="547" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q321" s="416"/>
       <c r="R321" s="416"/>
@@ -28688,17 +28685,17 @@
         <v>46</v>
       </c>
       <c r="AC321" s="339" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG321" s="81"/>
       <c r="AJ321" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK321" s="87">
         <v>1</v>
       </c>
       <c r="BB321" s="340" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM321" s="81">
         <f t="shared" si="25"/>
@@ -28719,10 +28716,10 @@
     </row>
     <row r="322" spans="1:68" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="63" t="s">
+        <v>511</v>
+      </c>
+      <c r="B322" s="63" t="s">
         <v>512</v>
-      </c>
-      <c r="B322" s="63" t="s">
-        <v>513</v>
       </c>
       <c r="C322" s="36">
         <v>4301135723</v>
@@ -28747,20 +28744,20 @@
         <v>126</v>
       </c>
       <c r="K322" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L322" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M322" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N322" s="38"/>
       <c r="O322" s="37">
         <v>180</v>
       </c>
       <c r="P322" s="548" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q322" s="416"/>
       <c r="R322" s="416"/>
@@ -28793,17 +28790,17 @@
         <v>46</v>
       </c>
       <c r="AC322" s="341" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG322" s="81"/>
       <c r="AJ322" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK322" s="87">
         <v>1</v>
       </c>
       <c r="BB322" s="342" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BM322" s="81">
         <f t="shared" si="25"/>
@@ -29156,7 +29153,7 @@
         <v>9</v>
       </c>
       <c r="B332" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C332" s="553" t="s">
         <v>45</v>
@@ -29214,52 +29211,52 @@
         <v>45</v>
       </c>
       <c r="V332" s="553" t="s">
+        <v>276</v>
+      </c>
+      <c r="W332" s="553" t="s">
+        <v>276</v>
+      </c>
+      <c r="X332" s="553" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y332" s="553" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z332" s="553" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA332" s="553" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB332" s="553" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC332" s="553" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD332" s="553" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE332" s="553" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF332" s="553" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG332" s="88" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH332" s="553" t="s">
+        <v>394</v>
+      </c>
+      <c r="AI332" s="553" t="s">
+        <v>394</v>
+      </c>
+      <c r="AJ332" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="AK332" s="88" t="s">
         <v>277</v>
-      </c>
-      <c r="W332" s="553" t="s">
-        <v>277</v>
-      </c>
-      <c r="X332" s="553" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y332" s="553" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z332" s="553" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA332" s="553" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB332" s="553" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC332" s="553" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD332" s="553" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE332" s="553" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF332" s="553" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG332" s="88" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH332" s="553" t="s">
-        <v>395</v>
-      </c>
-      <c r="AI332" s="553" t="s">
-        <v>395</v>
-      </c>
-      <c r="AJ332" s="88" t="s">
-        <v>405</v>
-      </c>
-      <c r="AK332" s="88" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="333" spans="1:68" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -29267,110 +29264,110 @@
         <v>10</v>
       </c>
       <c r="B333" s="553" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C333" s="553" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D333" s="553" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E333" s="553" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F333" s="553" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G333" s="553" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H333" s="553" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I333" s="553" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J333" s="553" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K333" s="553" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L333" s="553" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M333" s="553" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N333" s="1"/>
       <c r="O333" s="553" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P333" s="553" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q333" s="553" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R333" s="553" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S333" s="553" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T333" s="553" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U333" s="553" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V333" s="553" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W333" s="553" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X333" s="553" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y333" s="553" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Z333" s="553" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA333" s="553" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AB333" s="553" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AC333" s="553" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AD333" s="553" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AE333" s="553" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF333" s="553" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG333" s="553" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH333" s="553" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AI333" s="553" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AJ333" s="553" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AK333" s="553" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="334" spans="1:68" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -29587,8 +29584,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JaQbae9RM7Xo3ZuKn7d8BO5gQ/RSMVx3QR6HwZS0X2w1M47slbUQ3SJmcMDd0P8MgqMM6eDzysdh0wwD2vFJyA==" saltValue="kLCPiHgSxljAbyOWr6kRqw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A18:AF18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <sheetProtection algorithmName="SHA-512" hashValue="zeGcCvbo5n0nnPnSNVLEOuwN9cGRwL7cMQ3dYlQ7FwrS5/Bm1kN4Vi5ZcTcftJ9ferpftwpjczSjCvhxPixGnA==" saltValue="eG8FirnvqWYfyMYlEYc+eg==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A18:AF330" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="15" showButton="0"/>
     <filterColumn colId="16" showButton="0"/>
@@ -30276,14 +30273,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:L8" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>CHOOSE($D$7,UnloadAdressList0001)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X22 X318:X322 X308:X309 X306 X304 X302 X275 X271 X265 X253 X246 X241 X236 X228:X230 X220:X222 X218 X212 X203:X206 X197 X192 X179:X180 X175 X172:X173 X161 X155:X156 X150 X145 X134 X127:X128 X119:X121 X117 X112 X110 X105 X95:X99 X84 X71:X73 X66:X67 X62 X58 X53 X50:X51 X48 X46 X44 X36:X39 X28:X31" xr:uid="{00000000-0002-0000-0000-000011000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X22 X318:X322 X308:X309 X306 X304 X302 X275 X271 X265 X253 X246 X241 X236 X228:X230 X220:X222 X218 X212 X203:X206 X197 X192 X179:X180 X175 X172:X173 X161 X155:X156 X150 X145 X134 X127:X128 X120:X121 X117:X118 X112 X110 X105 X95:X99 X84 X71:X73 X66:X67 X62 X58 X51:X52 X49 X47 X44:X45 X36:X39 X28:X31" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>IF(AK22&gt;0,OR(X22=0,AND(IF(X22-AK22&gt;=0,TRUE,FALSE),X22&gt;0)),FALSE)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X45 X291 X259 X211 X186:X187 X140 X118 X79 X52" xr:uid="{00000000-0002-0000-0000-00001B000000}">
-      <formula1>IF(AK45&gt;0,OR(X45=0,AND(IF(X45-AK45&gt;=0,TRUE,FALSE),X45&gt;0,IF(X45/J45=ROUND(X45/J45,0),TRUE,FALSE))),FALSE)</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X46 X291 X259 X211 X186:X187 X140 X119 X79 X53" xr:uid="{00000000-0002-0000-0000-00001C000000}">
+      <formula1>IF(AK46&gt;0,OR(X46=0,AND(IF(X46-AK46&gt;=0,TRUE,FALSE),X46&gt;0,IF(X46/J46=ROUND(X46/J46,0),TRUE,FALSE))),FALSE)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X47 X310:X317 X307 X305 X303 X296:X298 X292 X287 X281:X283 X260 X247 X231 X223 X219 X213 X188 X174 X167 X139 X133 X122 X111 X100 X89:X90 X78 X49" xr:uid="{00000000-0002-0000-0000-00001D000000}">
-      <formula1>IF(AK47&gt;0,OR(X47=0,AND(IF(X47-AK47&gt;=0,TRUE,FALSE),X47&gt;0,IF(X47/K47=ROUND(X47/K47,0),TRUE,FALSE))),FALSE)</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X48 X310:X317 X307 X305 X303 X296:X298 X292 X287 X281:X283 X260 X247 X231 X223 X219 X213 X188 X174 X167 X139 X133 X122 X111 X100 X89:X90 X78 X50" xr:uid="{00000000-0002-0000-0000-00001E000000}">
+      <formula1>IF(AK48&gt;0,OR(X48=0,AND(IF(X48-AK48&gt;=0,TRUE,FALSE),X48&gt;0,IF(X48/K48=ROUND(X48/K48,0),TRUE,FALSE))),FALSE)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30313,13 +30310,13 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1" s="9"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C3" s="53" t="s">
         <v>46</v>
@@ -30333,7 +30330,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>46</v>
@@ -30347,13 +30344,13 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>519</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>520</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>46</v>
@@ -30361,10 +30358,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>46</v>
@@ -30375,7 +30372,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>46</v>
@@ -30389,7 +30386,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>46</v>
@@ -30403,7 +30400,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>46</v>
@@ -30417,7 +30414,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>46</v>
@@ -30431,7 +30428,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>46</v>
@@ -30445,7 +30442,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="53" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>46</v>
@@ -30459,7 +30456,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="53" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>46</v>
@@ -30473,7 +30470,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="53" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>46</v>
@@ -30487,7 +30484,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>46</v>
@@ -30501,7 +30498,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>46</v>
@@ -30515,7 +30512,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="53" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>46</v>
@@ -30528,19 +30525,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q+9yJ/Wx8A/QVeGwDuqhxwc7g7Y8jxbHOSHHE4yNcWNCAx8ez5I9WMBvQGYXBYWgZcaOKXnn0GgeP4wwTCRKlQ==" saltValue="eSs2hshyY4l1uzv9Nh1Duw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3EvJR5np7DIg5yvW2Tea5GEURLCflosNp7/9qIGlpvIePWUEmpX+O0XollSTbXtkUHpEo8K1q36Cw9UOrCdG/g==" saltValue="o5eMLrKcll0cuoGhw3s12Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100BE9B55E4B75ADC4EA022BCFE912025B5" ma:contentTypeVersion="2" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="2ac6f31670a5913a5008fc49ead251a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb0b2827-4eb3-461f-8866-28597c48f473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f54d7d8b2039ed4c9796edaba581cae7" ns2:_="">
     <xsd:import namespace="bb0b2827-4eb3-461f-8866-28597c48f473"/>
@@ -30688,7 +30679,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -30697,23 +30688,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624C7E1B-E076-4729-8478-31CDA599C536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="bb0b2827-4eb3-461f-8866-28597c48f473"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE5A0B88-DB71-4916-80FA-147DE2C72DAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30731,10 +30712,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36407DDB-7AD7-47BE-9510-621E920C3D44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624C7E1B-E076-4729-8478-31CDA599C536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="bb0b2827-4eb3-461f-8866-28597c48f473"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>